--- a/Doc/1.SA/要件定義書.xlsx
+++ b/Doc/1.SA/要件定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3600" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="4200" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -1272,6 +1272,42 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,41 +1344,83 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="25" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -1449,84 +1527,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="20" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="22" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="21" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1562,14 +1562,14 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>119</xdr:row>
-      <xdr:rowOff>12162</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="32" name="図 31"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1583,7 +1583,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="600075" y="14001750"/>
-          <a:ext cx="8429625" cy="4126962"/>
+          <a:ext cx="8934450" cy="4467225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2190,488 +2190,488 @@
       <c r="BF10" s="5"/>
     </row>
     <row r="11" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41"/>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41"/>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="41"/>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="41"/>
-      <c r="AU11" s="41"/>
-      <c r="AV11" s="41"/>
-      <c r="AW11" s="41"/>
-      <c r="AX11" s="41"/>
-      <c r="AY11" s="41"/>
-      <c r="AZ11" s="41"/>
-      <c r="BA11" s="41"/>
-      <c r="BB11" s="41"/>
-      <c r="BC11" s="41"/>
-      <c r="BD11" s="41"/>
-      <c r="BE11" s="41"/>
-      <c r="BF11" s="41"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="53"/>
+      <c r="T11" s="53"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+      <c r="W11" s="53"/>
+      <c r="X11" s="53"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="53"/>
+      <c r="AA11" s="53"/>
+      <c r="AB11" s="53"/>
+      <c r="AC11" s="53"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="53"/>
+      <c r="AG11" s="53"/>
+      <c r="AH11" s="53"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="53"/>
+      <c r="AK11" s="53"/>
+      <c r="AL11" s="53"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="53"/>
+      <c r="AO11" s="53"/>
+      <c r="AP11" s="53"/>
+      <c r="AQ11" s="53"/>
+      <c r="AR11" s="53"/>
+      <c r="AS11" s="53"/>
+      <c r="AT11" s="53"/>
+      <c r="AU11" s="53"/>
+      <c r="AV11" s="53"/>
+      <c r="AW11" s="53"/>
+      <c r="AX11" s="53"/>
+      <c r="AY11" s="53"/>
+      <c r="AZ11" s="53"/>
+      <c r="BA11" s="53"/>
+      <c r="BB11" s="53"/>
+      <c r="BC11" s="53"/>
+      <c r="BD11" s="53"/>
+      <c r="BE11" s="53"/>
+      <c r="BF11" s="53"/>
     </row>
     <row r="12" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="41"/>
-      <c r="N12" s="41"/>
-      <c r="O12" s="41"/>
-      <c r="P12" s="41"/>
-      <c r="Q12" s="41"/>
-      <c r="R12" s="41"/>
-      <c r="S12" s="41"/>
-      <c r="T12" s="41"/>
-      <c r="U12" s="41"/>
-      <c r="V12" s="41"/>
-      <c r="W12" s="41"/>
-      <c r="X12" s="41"/>
-      <c r="Y12" s="41"/>
-      <c r="Z12" s="41"/>
-      <c r="AA12" s="41"/>
-      <c r="AB12" s="41"/>
-      <c r="AC12" s="41"/>
-      <c r="AD12" s="41"/>
-      <c r="AE12" s="41"/>
-      <c r="AF12" s="41"/>
-      <c r="AG12" s="41"/>
-      <c r="AH12" s="41"/>
-      <c r="AI12" s="41"/>
-      <c r="AJ12" s="41"/>
-      <c r="AK12" s="41"/>
-      <c r="AL12" s="41"/>
-      <c r="AM12" s="41"/>
-      <c r="AN12" s="41"/>
-      <c r="AO12" s="41"/>
-      <c r="AP12" s="41"/>
-      <c r="AQ12" s="41"/>
-      <c r="AR12" s="41"/>
-      <c r="AS12" s="41"/>
-      <c r="AT12" s="41"/>
-      <c r="AU12" s="41"/>
-      <c r="AV12" s="41"/>
-      <c r="AW12" s="41"/>
-      <c r="AX12" s="41"/>
-      <c r="AY12" s="41"/>
-      <c r="AZ12" s="41"/>
-      <c r="BA12" s="41"/>
-      <c r="BB12" s="41"/>
-      <c r="BC12" s="41"/>
-      <c r="BD12" s="41"/>
-      <c r="BE12" s="41"/>
-      <c r="BF12" s="41"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="53"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="53"/>
+      <c r="AB12" s="53"/>
+      <c r="AC12" s="53"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="53"/>
+      <c r="AG12" s="53"/>
+      <c r="AH12" s="53"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="53"/>
+      <c r="AK12" s="53"/>
+      <c r="AL12" s="53"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="53"/>
+      <c r="AO12" s="53"/>
+      <c r="AP12" s="53"/>
+      <c r="AQ12" s="53"/>
+      <c r="AR12" s="53"/>
+      <c r="AS12" s="53"/>
+      <c r="AT12" s="53"/>
+      <c r="AU12" s="53"/>
+      <c r="AV12" s="53"/>
+      <c r="AW12" s="53"/>
+      <c r="AX12" s="53"/>
+      <c r="AY12" s="53"/>
+      <c r="AZ12" s="53"/>
+      <c r="BA12" s="53"/>
+      <c r="BB12" s="53"/>
+      <c r="BC12" s="53"/>
+      <c r="BD12" s="53"/>
+      <c r="BE12" s="53"/>
+      <c r="BF12" s="53"/>
     </row>
     <row r="13" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="41"/>
-      <c r="N13" s="41"/>
-      <c r="O13" s="41"/>
-      <c r="P13" s="41"/>
-      <c r="Q13" s="41"/>
-      <c r="R13" s="41"/>
-      <c r="S13" s="41"/>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="41"/>
-      <c r="Y13" s="41"/>
-      <c r="Z13" s="41"/>
-      <c r="AA13" s="41"/>
-      <c r="AB13" s="41"/>
-      <c r="AC13" s="41"/>
-      <c r="AD13" s="41"/>
-      <c r="AE13" s="41"/>
-      <c r="AF13" s="41"/>
-      <c r="AG13" s="41"/>
-      <c r="AH13" s="41"/>
-      <c r="AI13" s="41"/>
-      <c r="AJ13" s="41"/>
-      <c r="AK13" s="41"/>
-      <c r="AL13" s="41"/>
-      <c r="AM13" s="41"/>
-      <c r="AN13" s="41"/>
-      <c r="AO13" s="41"/>
-      <c r="AP13" s="41"/>
-      <c r="AQ13" s="41"/>
-      <c r="AR13" s="41"/>
-      <c r="AS13" s="41"/>
-      <c r="AT13" s="41"/>
-      <c r="AU13" s="41"/>
-      <c r="AV13" s="41"/>
-      <c r="AW13" s="41"/>
-      <c r="AX13" s="41"/>
-      <c r="AY13" s="41"/>
-      <c r="AZ13" s="41"/>
-      <c r="BA13" s="41"/>
-      <c r="BB13" s="41"/>
-      <c r="BC13" s="41"/>
-      <c r="BD13" s="41"/>
-      <c r="BE13" s="41"/>
-      <c r="BF13" s="41"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AF13" s="53"/>
+      <c r="AG13" s="53"/>
+      <c r="AH13" s="53"/>
+      <c r="AI13" s="53"/>
+      <c r="AJ13" s="53"/>
+      <c r="AK13" s="53"/>
+      <c r="AL13" s="53"/>
+      <c r="AM13" s="53"/>
+      <c r="AN13" s="53"/>
+      <c r="AO13" s="53"/>
+      <c r="AP13" s="53"/>
+      <c r="AQ13" s="53"/>
+      <c r="AR13" s="53"/>
+      <c r="AS13" s="53"/>
+      <c r="AT13" s="53"/>
+      <c r="AU13" s="53"/>
+      <c r="AV13" s="53"/>
+      <c r="AW13" s="53"/>
+      <c r="AX13" s="53"/>
+      <c r="AY13" s="53"/>
+      <c r="AZ13" s="53"/>
+      <c r="BA13" s="53"/>
+      <c r="BB13" s="53"/>
+      <c r="BC13" s="53"/>
+      <c r="BD13" s="53"/>
+      <c r="BE13" s="53"/>
+      <c r="BF13" s="53"/>
     </row>
     <row r="15" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
-      <c r="R15" s="42"/>
-      <c r="S15" s="42"/>
-      <c r="T15" s="42"/>
-      <c r="U15" s="42"/>
-      <c r="V15" s="42"/>
-      <c r="W15" s="42"/>
-      <c r="X15" s="42"/>
-      <c r="Y15" s="42"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="42"/>
-      <c r="AC15" s="42"/>
-      <c r="AD15" s="42"/>
-      <c r="AE15" s="42"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="42"/>
-      <c r="AH15" s="42"/>
-      <c r="AI15" s="42"/>
-      <c r="AJ15" s="42"/>
-      <c r="AK15" s="42"/>
-      <c r="AL15" s="42"/>
-      <c r="AM15" s="42"/>
-      <c r="AN15" s="42"/>
-      <c r="AO15" s="42"/>
-      <c r="AP15" s="42"/>
-      <c r="AQ15" s="42"/>
-      <c r="AR15" s="42"/>
-      <c r="AS15" s="42"/>
-      <c r="AT15" s="42"/>
-      <c r="AU15" s="42"/>
-      <c r="AV15" s="42"/>
-      <c r="AW15" s="42"/>
-      <c r="AX15" s="42"/>
-      <c r="AY15" s="42"/>
-      <c r="AZ15" s="42"/>
-      <c r="BA15" s="42"/>
-      <c r="BB15" s="42"/>
-      <c r="BC15" s="42"/>
-      <c r="BD15" s="42"/>
-      <c r="BE15" s="42"/>
-      <c r="BF15" s="42"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" s="54"/>
+      <c r="W15" s="54"/>
+      <c r="X15" s="54"/>
+      <c r="Y15" s="54"/>
+      <c r="Z15" s="54"/>
+      <c r="AA15" s="54"/>
+      <c r="AB15" s="54"/>
+      <c r="AC15" s="54"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AF15" s="54"/>
+      <c r="AG15" s="54"/>
+      <c r="AH15" s="54"/>
+      <c r="AI15" s="54"/>
+      <c r="AJ15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="54"/>
+      <c r="AO15" s="54"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="54"/>
+      <c r="AR15" s="54"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="54"/>
+      <c r="AU15" s="54"/>
+      <c r="AV15" s="54"/>
+      <c r="AW15" s="54"/>
+      <c r="AX15" s="54"/>
+      <c r="AY15" s="54"/>
+      <c r="AZ15" s="54"/>
+      <c r="BA15" s="54"/>
+      <c r="BB15" s="54"/>
+      <c r="BC15" s="54"/>
+      <c r="BD15" s="54"/>
+      <c r="BE15" s="54"/>
+      <c r="BF15" s="54"/>
     </row>
     <row r="16" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="42"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="42"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
-      <c r="P16" s="42"/>
-      <c r="Q16" s="42"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="42"/>
-      <c r="AC16" s="42"/>
-      <c r="AD16" s="42"/>
-      <c r="AE16" s="42"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="42"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="42"/>
-      <c r="AL16" s="42"/>
-      <c r="AM16" s="42"/>
-      <c r="AN16" s="42"/>
-      <c r="AO16" s="42"/>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="42"/>
-      <c r="AU16" s="42"/>
-      <c r="AV16" s="42"/>
-      <c r="AW16" s="42"/>
-      <c r="AX16" s="42"/>
-      <c r="AY16" s="42"/>
-      <c r="AZ16" s="42"/>
-      <c r="BA16" s="42"/>
-      <c r="BB16" s="42"/>
-      <c r="BC16" s="42"/>
-      <c r="BD16" s="42"/>
-      <c r="BE16" s="42"/>
-      <c r="BF16" s="42"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="54"/>
+      <c r="X16" s="54"/>
+      <c r="Y16" s="54"/>
+      <c r="Z16" s="54"/>
+      <c r="AA16" s="54"/>
+      <c r="AB16" s="54"/>
+      <c r="AC16" s="54"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AF16" s="54"/>
+      <c r="AG16" s="54"/>
+      <c r="AH16" s="54"/>
+      <c r="AI16" s="54"/>
+      <c r="AJ16" s="54"/>
+      <c r="AK16" s="54"/>
+      <c r="AL16" s="54"/>
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="54"/>
+      <c r="AO16" s="54"/>
+      <c r="AP16" s="54"/>
+      <c r="AQ16" s="54"/>
+      <c r="AR16" s="54"/>
+      <c r="AS16" s="54"/>
+      <c r="AT16" s="54"/>
+      <c r="AU16" s="54"/>
+      <c r="AV16" s="54"/>
+      <c r="AW16" s="54"/>
+      <c r="AX16" s="54"/>
+      <c r="AY16" s="54"/>
+      <c r="AZ16" s="54"/>
+      <c r="BA16" s="54"/>
+      <c r="BB16" s="54"/>
+      <c r="BC16" s="54"/>
+      <c r="BD16" s="54"/>
+      <c r="BE16" s="54"/>
+      <c r="BF16" s="54"/>
     </row>
     <row r="17" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="42"/>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="42"/>
-      <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="42"/>
-      <c r="AB17" s="42"/>
-      <c r="AC17" s="42"/>
-      <c r="AD17" s="42"/>
-      <c r="AE17" s="42"/>
-      <c r="AF17" s="42"/>
-      <c r="AG17" s="42"/>
-      <c r="AH17" s="42"/>
-      <c r="AI17" s="42"/>
-      <c r="AJ17" s="42"/>
-      <c r="AK17" s="42"/>
-      <c r="AL17" s="42"/>
-      <c r="AM17" s="42"/>
-      <c r="AN17" s="42"/>
-      <c r="AO17" s="42"/>
-      <c r="AP17" s="42"/>
-      <c r="AQ17" s="42"/>
-      <c r="AR17" s="42"/>
-      <c r="AS17" s="42"/>
-      <c r="AT17" s="42"/>
-      <c r="AU17" s="42"/>
-      <c r="AV17" s="42"/>
-      <c r="AW17" s="42"/>
-      <c r="AX17" s="42"/>
-      <c r="AY17" s="42"/>
-      <c r="AZ17" s="42"/>
-      <c r="BA17" s="42"/>
-      <c r="BB17" s="42"/>
-      <c r="BC17" s="42"/>
-      <c r="BD17" s="42"/>
-      <c r="BE17" s="42"/>
-      <c r="BF17" s="42"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="54"/>
+      <c r="U17" s="54"/>
+      <c r="V17" s="54"/>
+      <c r="W17" s="54"/>
+      <c r="X17" s="54"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
+      <c r="AA17" s="54"/>
+      <c r="AB17" s="54"/>
+      <c r="AC17" s="54"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AF17" s="54"/>
+      <c r="AG17" s="54"/>
+      <c r="AH17" s="54"/>
+      <c r="AI17" s="54"/>
+      <c r="AJ17" s="54"/>
+      <c r="AK17" s="54"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="54"/>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="54"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="54"/>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="54"/>
+      <c r="AY17" s="54"/>
+      <c r="AZ17" s="54"/>
+      <c r="BA17" s="54"/>
+      <c r="BB17" s="54"/>
+      <c r="BC17" s="54"/>
+      <c r="BD17" s="54"/>
+      <c r="BE17" s="54"/>
+      <c r="BF17" s="54"/>
     </row>
     <row r="18" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="42"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="42"/>
-      <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="42"/>
-      <c r="AB18" s="42"/>
-      <c r="AC18" s="42"/>
-      <c r="AD18" s="42"/>
-      <c r="AE18" s="42"/>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="42"/>
-      <c r="AH18" s="42"/>
-      <c r="AI18" s="42"/>
-      <c r="AJ18" s="42"/>
-      <c r="AK18" s="42"/>
-      <c r="AL18" s="42"/>
-      <c r="AM18" s="42"/>
-      <c r="AN18" s="42"/>
-      <c r="AO18" s="42"/>
-      <c r="AP18" s="42"/>
-      <c r="AQ18" s="42"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AT18" s="42"/>
-      <c r="AU18" s="42"/>
-      <c r="AV18" s="42"/>
-      <c r="AW18" s="42"/>
-      <c r="AX18" s="42"/>
-      <c r="AY18" s="42"/>
-      <c r="AZ18" s="42"/>
-      <c r="BA18" s="42"/>
-      <c r="BB18" s="42"/>
-      <c r="BC18" s="42"/>
-      <c r="BD18" s="42"/>
-      <c r="BE18" s="42"/>
-      <c r="BF18" s="42"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
+      <c r="S18" s="54"/>
+      <c r="T18" s="54"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="54"/>
+      <c r="Z18" s="54"/>
+      <c r="AA18" s="54"/>
+      <c r="AB18" s="54"/>
+      <c r="AC18" s="54"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AF18" s="54"/>
+      <c r="AG18" s="54"/>
+      <c r="AH18" s="54"/>
+      <c r="AI18" s="54"/>
+      <c r="AJ18" s="54"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="54"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
+      <c r="AR18" s="54"/>
+      <c r="AS18" s="54"/>
+      <c r="AT18" s="54"/>
+      <c r="AU18" s="54"/>
+      <c r="AV18" s="54"/>
+      <c r="AW18" s="54"/>
+      <c r="AX18" s="54"/>
+      <c r="AY18" s="54"/>
+      <c r="AZ18" s="54"/>
+      <c r="BA18" s="54"/>
+      <c r="BB18" s="54"/>
+      <c r="BC18" s="54"/>
+      <c r="BD18" s="54"/>
+      <c r="BE18" s="54"/>
+      <c r="BF18" s="54"/>
     </row>
     <row r="19" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="42"/>
-      <c r="Q19" s="42"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="42"/>
-      <c r="U19" s="42"/>
-      <c r="V19" s="42"/>
-      <c r="W19" s="42"/>
-      <c r="X19" s="42"/>
-      <c r="Y19" s="42"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="42"/>
-      <c r="AB19" s="42"/>
-      <c r="AC19" s="42"/>
-      <c r="AD19" s="42"/>
-      <c r="AE19" s="42"/>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="42"/>
-      <c r="AH19" s="42"/>
-      <c r="AI19" s="42"/>
-      <c r="AJ19" s="42"/>
-      <c r="AK19" s="42"/>
-      <c r="AL19" s="42"/>
-      <c r="AM19" s="42"/>
-      <c r="AN19" s="42"/>
-      <c r="AO19" s="42"/>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="42"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AT19" s="42"/>
-      <c r="AU19" s="42"/>
-      <c r="AV19" s="42"/>
-      <c r="AW19" s="42"/>
-      <c r="AX19" s="42"/>
-      <c r="AY19" s="42"/>
-      <c r="AZ19" s="42"/>
-      <c r="BA19" s="42"/>
-      <c r="BB19" s="42"/>
-      <c r="BC19" s="42"/>
-      <c r="BD19" s="42"/>
-      <c r="BE19" s="42"/>
-      <c r="BF19" s="42"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="54"/>
+      <c r="U19" s="54"/>
+      <c r="V19" s="54"/>
+      <c r="W19" s="54"/>
+      <c r="X19" s="54"/>
+      <c r="Y19" s="54"/>
+      <c r="Z19" s="54"/>
+      <c r="AA19" s="54"/>
+      <c r="AB19" s="54"/>
+      <c r="AC19" s="54"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
+      <c r="AF19" s="54"/>
+      <c r="AG19" s="54"/>
+      <c r="AH19" s="54"/>
+      <c r="AI19" s="54"/>
+      <c r="AJ19" s="54"/>
+      <c r="AK19" s="54"/>
+      <c r="AL19" s="54"/>
+      <c r="AM19" s="54"/>
+      <c r="AN19" s="54"/>
+      <c r="AO19" s="54"/>
+      <c r="AP19" s="54"/>
+      <c r="AQ19" s="54"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
+      <c r="AT19" s="54"/>
+      <c r="AU19" s="54"/>
+      <c r="AV19" s="54"/>
+      <c r="AW19" s="54"/>
+      <c r="AX19" s="54"/>
+      <c r="AY19" s="54"/>
+      <c r="AZ19" s="54"/>
+      <c r="BA19" s="54"/>
+      <c r="BB19" s="54"/>
+      <c r="BC19" s="54"/>
+      <c r="BD19" s="54"/>
+      <c r="BE19" s="54"/>
+      <c r="BF19" s="54"/>
     </row>
     <row r="26" spans="1:59" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
@@ -2715,36 +2715,36 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="P27" s="43">
+      <c r="P27" s="55">
         <v>44172</v>
       </c>
-      <c r="Q27" s="44"/>
-      <c r="R27" s="44"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="44"/>
-      <c r="Y27" s="44"/>
-      <c r="Z27" s="44"/>
-      <c r="AA27" s="44"/>
-      <c r="AB27" s="44"/>
-      <c r="AC27" s="44"/>
-      <c r="AD27" s="44"/>
-      <c r="AE27" s="44"/>
-      <c r="AF27" s="44"/>
-      <c r="AG27" s="44"/>
-      <c r="AH27" s="44"/>
-      <c r="AI27" s="44"/>
-      <c r="AJ27" s="44"/>
-      <c r="AK27" s="44"/>
-      <c r="AL27" s="44"/>
-      <c r="AM27" s="44"/>
-      <c r="AN27" s="44"/>
-      <c r="AO27" s="44"/>
-      <c r="AP27" s="44"/>
-      <c r="AQ27" s="44"/>
+      <c r="Q27" s="56"/>
+      <c r="R27" s="56"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="56"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="56"/>
+      <c r="AG27" s="56"/>
+      <c r="AH27" s="56"/>
+      <c r="AI27" s="56"/>
+      <c r="AJ27" s="56"/>
+      <c r="AK27" s="56"/>
+      <c r="AL27" s="56"/>
+      <c r="AM27" s="56"/>
+      <c r="AN27" s="56"/>
+      <c r="AO27" s="56"/>
+      <c r="AP27" s="56"/>
+      <c r="AQ27" s="56"/>
       <c r="AR27" s="3"/>
       <c r="AS27" s="3"/>
       <c r="AT27" s="3"/>
@@ -2771,34 +2771,34 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="P28" s="44"/>
-      <c r="Q28" s="44"/>
-      <c r="R28" s="44"/>
-      <c r="S28" s="44"/>
-      <c r="T28" s="44"/>
-      <c r="U28" s="44"/>
-      <c r="V28" s="44"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="44"/>
-      <c r="Y28" s="44"/>
-      <c r="Z28" s="44"/>
-      <c r="AA28" s="44"/>
-      <c r="AB28" s="44"/>
-      <c r="AC28" s="44"/>
-      <c r="AD28" s="44"/>
-      <c r="AE28" s="44"/>
-      <c r="AF28" s="44"/>
-      <c r="AG28" s="44"/>
-      <c r="AH28" s="44"/>
-      <c r="AI28" s="44"/>
-      <c r="AJ28" s="44"/>
-      <c r="AK28" s="44"/>
-      <c r="AL28" s="44"/>
-      <c r="AM28" s="44"/>
-      <c r="AN28" s="44"/>
-      <c r="AO28" s="44"/>
-      <c r="AP28" s="44"/>
-      <c r="AQ28" s="44"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="56"/>
+      <c r="R28" s="56"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="56"/>
+      <c r="U28" s="56"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="56"/>
+      <c r="X28" s="56"/>
+      <c r="Y28" s="56"/>
+      <c r="Z28" s="56"/>
+      <c r="AA28" s="56"/>
+      <c r="AB28" s="56"/>
+      <c r="AC28" s="56"/>
+      <c r="AD28" s="56"/>
+      <c r="AE28" s="56"/>
+      <c r="AF28" s="56"/>
+      <c r="AG28" s="56"/>
+      <c r="AH28" s="56"/>
+      <c r="AI28" s="56"/>
+      <c r="AJ28" s="56"/>
+      <c r="AK28" s="56"/>
+      <c r="AL28" s="56"/>
+      <c r="AM28" s="56"/>
+      <c r="AN28" s="56"/>
+      <c r="AO28" s="56"/>
+      <c r="AP28" s="56"/>
+      <c r="AQ28" s="56"/>
       <c r="AR28" s="3"/>
       <c r="AS28" s="3"/>
       <c r="AT28" s="3"/>
@@ -3176,55 +3176,55 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="W41" s="45" t="s">
+      <c r="W41" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="X41" s="46"/>
-      <c r="Y41" s="46"/>
-      <c r="Z41" s="47"/>
-      <c r="AA41" s="47"/>
-      <c r="AB41" s="47" t="s">
+      <c r="X41" s="58"/>
+      <c r="Y41" s="58"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="AC41" s="47"/>
-      <c r="AD41" s="47"/>
-      <c r="AE41" s="47"/>
-      <c r="AF41" s="47"/>
-      <c r="AG41" s="47" t="s">
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="59"/>
+      <c r="AG41" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="AH41" s="47"/>
-      <c r="AI41" s="47"/>
-      <c r="AJ41" s="47"/>
-      <c r="AK41" s="48"/>
-      <c r="AM41" s="49" t="s">
+      <c r="AH41" s="59"/>
+      <c r="AI41" s="59"/>
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="60"/>
+      <c r="AM41" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AN41" s="50"/>
-      <c r="AO41" s="50"/>
-      <c r="AP41" s="51"/>
-      <c r="AQ41" s="52"/>
-      <c r="AR41" s="49" t="s">
+      <c r="AN41" s="62"/>
+      <c r="AO41" s="62"/>
+      <c r="AP41" s="63"/>
+      <c r="AQ41" s="64"/>
+      <c r="AR41" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="AS41" s="50"/>
-      <c r="AT41" s="50"/>
-      <c r="AU41" s="51"/>
-      <c r="AV41" s="51"/>
-      <c r="AW41" s="51" t="s">
+      <c r="AS41" s="62"/>
+      <c r="AT41" s="62"/>
+      <c r="AU41" s="63"/>
+      <c r="AV41" s="63"/>
+      <c r="AW41" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="AX41" s="51"/>
-      <c r="AY41" s="51"/>
-      <c r="AZ41" s="51"/>
-      <c r="BA41" s="51"/>
-      <c r="BB41" s="51" t="s">
+      <c r="AX41" s="63"/>
+      <c r="AY41" s="63"/>
+      <c r="AZ41" s="63"/>
+      <c r="BA41" s="63"/>
+      <c r="BB41" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="BC41" s="51"/>
-      <c r="BD41" s="51"/>
-      <c r="BE41" s="51"/>
-      <c r="BF41" s="52"/>
+      <c r="BC41" s="63"/>
+      <c r="BD41" s="63"/>
+      <c r="BE41" s="63"/>
+      <c r="BF41" s="64"/>
       <c r="BG41" s="3"/>
     </row>
     <row r="42" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3243,43 +3243,43 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="W42" s="63"/>
-      <c r="X42" s="64"/>
-      <c r="Y42" s="64"/>
-      <c r="Z42" s="53"/>
-      <c r="AA42" s="53"/>
-      <c r="AB42" s="53"/>
-      <c r="AC42" s="53"/>
-      <c r="AD42" s="53"/>
-      <c r="AE42" s="53"/>
-      <c r="AF42" s="53"/>
-      <c r="AG42" s="53"/>
-      <c r="AH42" s="53"/>
-      <c r="AI42" s="53"/>
-      <c r="AJ42" s="53"/>
-      <c r="AK42" s="54"/>
-      <c r="AM42" s="63"/>
-      <c r="AN42" s="64"/>
-      <c r="AO42" s="64"/>
-      <c r="AP42" s="53"/>
-      <c r="AQ42" s="53"/>
-      <c r="AR42" s="63"/>
-      <c r="AS42" s="64"/>
-      <c r="AT42" s="64"/>
-      <c r="AU42" s="53"/>
-      <c r="AV42" s="53"/>
-      <c r="AW42" s="53"/>
-      <c r="AX42" s="53"/>
-      <c r="AY42" s="53"/>
-      <c r="AZ42" s="53"/>
-      <c r="BA42" s="53"/>
-      <c r="BB42" s="53" t="s">
+      <c r="W42" s="51"/>
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52"/>
+      <c r="Z42" s="41"/>
+      <c r="AA42" s="41"/>
+      <c r="AB42" s="41"/>
+      <c r="AC42" s="41"/>
+      <c r="AD42" s="41"/>
+      <c r="AE42" s="41"/>
+      <c r="AF42" s="41"/>
+      <c r="AG42" s="41"/>
+      <c r="AH42" s="41"/>
+      <c r="AI42" s="41"/>
+      <c r="AJ42" s="41"/>
+      <c r="AK42" s="42"/>
+      <c r="AM42" s="51"/>
+      <c r="AN42" s="52"/>
+      <c r="AO42" s="52"/>
+      <c r="AP42" s="41"/>
+      <c r="AQ42" s="41"/>
+      <c r="AR42" s="51"/>
+      <c r="AS42" s="52"/>
+      <c r="AT42" s="52"/>
+      <c r="AU42" s="41"/>
+      <c r="AV42" s="41"/>
+      <c r="AW42" s="41"/>
+      <c r="AX42" s="41"/>
+      <c r="AY42" s="41"/>
+      <c r="AZ42" s="41"/>
+      <c r="BA42" s="41"/>
+      <c r="BB42" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="BC42" s="53"/>
-      <c r="BD42" s="53"/>
-      <c r="BE42" s="53"/>
-      <c r="BF42" s="54"/>
+      <c r="BC42" s="41"/>
+      <c r="BD42" s="41"/>
+      <c r="BE42" s="41"/>
+      <c r="BF42" s="42"/>
       <c r="BG42" s="3"/>
     </row>
     <row r="43" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3298,41 +3298,41 @@
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
-      <c r="W43" s="63"/>
-      <c r="X43" s="64"/>
-      <c r="Y43" s="64"/>
-      <c r="Z43" s="53"/>
-      <c r="AA43" s="53"/>
-      <c r="AB43" s="53"/>
-      <c r="AC43" s="53"/>
-      <c r="AD43" s="53"/>
-      <c r="AE43" s="53"/>
-      <c r="AF43" s="53"/>
-      <c r="AG43" s="53"/>
-      <c r="AH43" s="53"/>
-      <c r="AI43" s="53"/>
-      <c r="AJ43" s="53"/>
-      <c r="AK43" s="54"/>
-      <c r="AM43" s="63"/>
-      <c r="AN43" s="64"/>
-      <c r="AO43" s="64"/>
-      <c r="AP43" s="53"/>
-      <c r="AQ43" s="53"/>
-      <c r="AR43" s="63"/>
-      <c r="AS43" s="64"/>
-      <c r="AT43" s="64"/>
-      <c r="AU43" s="53"/>
-      <c r="AV43" s="53"/>
-      <c r="AW43" s="53"/>
-      <c r="AX43" s="53"/>
-      <c r="AY43" s="53"/>
-      <c r="AZ43" s="53"/>
-      <c r="BA43" s="53"/>
-      <c r="BB43" s="53"/>
-      <c r="BC43" s="53"/>
-      <c r="BD43" s="53"/>
-      <c r="BE43" s="53"/>
-      <c r="BF43" s="54"/>
+      <c r="W43" s="51"/>
+      <c r="X43" s="52"/>
+      <c r="Y43" s="52"/>
+      <c r="Z43" s="41"/>
+      <c r="AA43" s="41"/>
+      <c r="AB43" s="41"/>
+      <c r="AC43" s="41"/>
+      <c r="AD43" s="41"/>
+      <c r="AE43" s="41"/>
+      <c r="AF43" s="41"/>
+      <c r="AG43" s="41"/>
+      <c r="AH43" s="41"/>
+      <c r="AI43" s="41"/>
+      <c r="AJ43" s="41"/>
+      <c r="AK43" s="42"/>
+      <c r="AM43" s="51"/>
+      <c r="AN43" s="52"/>
+      <c r="AO43" s="52"/>
+      <c r="AP43" s="41"/>
+      <c r="AQ43" s="41"/>
+      <c r="AR43" s="51"/>
+      <c r="AS43" s="52"/>
+      <c r="AT43" s="52"/>
+      <c r="AU43" s="41"/>
+      <c r="AV43" s="41"/>
+      <c r="AW43" s="41"/>
+      <c r="AX43" s="41"/>
+      <c r="AY43" s="41"/>
+      <c r="AZ43" s="41"/>
+      <c r="BA43" s="41"/>
+      <c r="BB43" s="41"/>
+      <c r="BC43" s="41"/>
+      <c r="BD43" s="41"/>
+      <c r="BE43" s="41"/>
+      <c r="BF43" s="42"/>
       <c r="BG43" s="3"/>
     </row>
     <row r="44" spans="1:59" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3351,41 +3351,41 @@
       <c r="M44" s="3"/>
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
-      <c r="W44" s="63"/>
-      <c r="X44" s="64"/>
-      <c r="Y44" s="64"/>
-      <c r="Z44" s="53"/>
-      <c r="AA44" s="53"/>
-      <c r="AB44" s="53"/>
-      <c r="AC44" s="53"/>
-      <c r="AD44" s="53"/>
-      <c r="AE44" s="53"/>
-      <c r="AF44" s="53"/>
-      <c r="AG44" s="53"/>
-      <c r="AH44" s="53"/>
-      <c r="AI44" s="53"/>
-      <c r="AJ44" s="53"/>
-      <c r="AK44" s="54"/>
-      <c r="AM44" s="63"/>
-      <c r="AN44" s="64"/>
-      <c r="AO44" s="64"/>
-      <c r="AP44" s="53"/>
-      <c r="AQ44" s="53"/>
-      <c r="AR44" s="63"/>
-      <c r="AS44" s="64"/>
-      <c r="AT44" s="64"/>
-      <c r="AU44" s="53"/>
-      <c r="AV44" s="53"/>
-      <c r="AW44" s="53"/>
-      <c r="AX44" s="53"/>
-      <c r="AY44" s="53"/>
-      <c r="AZ44" s="53"/>
-      <c r="BA44" s="53"/>
-      <c r="BB44" s="53"/>
-      <c r="BC44" s="53"/>
-      <c r="BD44" s="53"/>
-      <c r="BE44" s="53"/>
-      <c r="BF44" s="54"/>
+      <c r="W44" s="51"/>
+      <c r="X44" s="52"/>
+      <c r="Y44" s="52"/>
+      <c r="Z44" s="41"/>
+      <c r="AA44" s="41"/>
+      <c r="AB44" s="41"/>
+      <c r="AC44" s="41"/>
+      <c r="AD44" s="41"/>
+      <c r="AE44" s="41"/>
+      <c r="AF44" s="41"/>
+      <c r="AG44" s="41"/>
+      <c r="AH44" s="41"/>
+      <c r="AI44" s="41"/>
+      <c r="AJ44" s="41"/>
+      <c r="AK44" s="42"/>
+      <c r="AM44" s="51"/>
+      <c r="AN44" s="52"/>
+      <c r="AO44" s="52"/>
+      <c r="AP44" s="41"/>
+      <c r="AQ44" s="41"/>
+      <c r="AR44" s="51"/>
+      <c r="AS44" s="52"/>
+      <c r="AT44" s="52"/>
+      <c r="AU44" s="41"/>
+      <c r="AV44" s="41"/>
+      <c r="AW44" s="41"/>
+      <c r="AX44" s="41"/>
+      <c r="AY44" s="41"/>
+      <c r="AZ44" s="41"/>
+      <c r="BA44" s="41"/>
+      <c r="BB44" s="41"/>
+      <c r="BC44" s="41"/>
+      <c r="BD44" s="41"/>
+      <c r="BE44" s="41"/>
+      <c r="BF44" s="42"/>
       <c r="BG44" s="3"/>
     </row>
     <row r="45" spans="1:59" x14ac:dyDescent="0.2">
@@ -3411,42 +3411,42 @@
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
       <c r="V45" s="7"/>
-      <c r="W45" s="63"/>
-      <c r="X45" s="64"/>
-      <c r="Y45" s="64"/>
-      <c r="Z45" s="53"/>
-      <c r="AA45" s="53"/>
-      <c r="AB45" s="53"/>
-      <c r="AC45" s="53"/>
-      <c r="AD45" s="53"/>
-      <c r="AE45" s="53"/>
-      <c r="AF45" s="53"/>
-      <c r="AG45" s="53"/>
-      <c r="AH45" s="53"/>
-      <c r="AI45" s="53"/>
-      <c r="AJ45" s="53"/>
-      <c r="AK45" s="54"/>
+      <c r="W45" s="51"/>
+      <c r="X45" s="52"/>
+      <c r="Y45" s="52"/>
+      <c r="Z45" s="41"/>
+      <c r="AA45" s="41"/>
+      <c r="AB45" s="41"/>
+      <c r="AC45" s="41"/>
+      <c r="AD45" s="41"/>
+      <c r="AE45" s="41"/>
+      <c r="AF45" s="41"/>
+      <c r="AG45" s="41"/>
+      <c r="AH45" s="41"/>
+      <c r="AI45" s="41"/>
+      <c r="AJ45" s="41"/>
+      <c r="AK45" s="42"/>
       <c r="AL45" s="7"/>
-      <c r="AM45" s="63"/>
-      <c r="AN45" s="64"/>
-      <c r="AO45" s="64"/>
-      <c r="AP45" s="53"/>
-      <c r="AQ45" s="53"/>
-      <c r="AR45" s="63"/>
-      <c r="AS45" s="64"/>
-      <c r="AT45" s="64"/>
-      <c r="AU45" s="53"/>
-      <c r="AV45" s="53"/>
-      <c r="AW45" s="53"/>
-      <c r="AX45" s="53"/>
-      <c r="AY45" s="53"/>
-      <c r="AZ45" s="53"/>
-      <c r="BA45" s="53"/>
-      <c r="BB45" s="53"/>
-      <c r="BC45" s="53"/>
-      <c r="BD45" s="53"/>
-      <c r="BE45" s="53"/>
-      <c r="BF45" s="54"/>
+      <c r="AM45" s="51"/>
+      <c r="AN45" s="52"/>
+      <c r="AO45" s="52"/>
+      <c r="AP45" s="41"/>
+      <c r="AQ45" s="41"/>
+      <c r="AR45" s="51"/>
+      <c r="AS45" s="52"/>
+      <c r="AT45" s="52"/>
+      <c r="AU45" s="41"/>
+      <c r="AV45" s="41"/>
+      <c r="AW45" s="41"/>
+      <c r="AX45" s="41"/>
+      <c r="AY45" s="41"/>
+      <c r="AZ45" s="41"/>
+      <c r="BA45" s="41"/>
+      <c r="BB45" s="41"/>
+      <c r="BC45" s="41"/>
+      <c r="BD45" s="41"/>
+      <c r="BE45" s="41"/>
+      <c r="BF45" s="42"/>
       <c r="BG45" s="3"/>
     </row>
     <row r="46" spans="1:59" x14ac:dyDescent="0.2">
@@ -3472,42 +3472,42 @@
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
       <c r="V46" s="7"/>
-      <c r="W46" s="63"/>
-      <c r="X46" s="64"/>
-      <c r="Y46" s="64"/>
-      <c r="Z46" s="53"/>
-      <c r="AA46" s="53"/>
-      <c r="AB46" s="53"/>
-      <c r="AC46" s="53"/>
-      <c r="AD46" s="53"/>
-      <c r="AE46" s="53"/>
-      <c r="AF46" s="53"/>
-      <c r="AG46" s="53"/>
-      <c r="AH46" s="53"/>
-      <c r="AI46" s="53"/>
-      <c r="AJ46" s="53"/>
-      <c r="AK46" s="54"/>
+      <c r="W46" s="51"/>
+      <c r="X46" s="52"/>
+      <c r="Y46" s="52"/>
+      <c r="Z46" s="41"/>
+      <c r="AA46" s="41"/>
+      <c r="AB46" s="41"/>
+      <c r="AC46" s="41"/>
+      <c r="AD46" s="41"/>
+      <c r="AE46" s="41"/>
+      <c r="AF46" s="41"/>
+      <c r="AG46" s="41"/>
+      <c r="AH46" s="41"/>
+      <c r="AI46" s="41"/>
+      <c r="AJ46" s="41"/>
+      <c r="AK46" s="42"/>
       <c r="AL46" s="7"/>
-      <c r="AM46" s="63"/>
-      <c r="AN46" s="64"/>
-      <c r="AO46" s="64"/>
-      <c r="AP46" s="53"/>
-      <c r="AQ46" s="53"/>
-      <c r="AR46" s="63"/>
-      <c r="AS46" s="64"/>
-      <c r="AT46" s="64"/>
-      <c r="AU46" s="53"/>
-      <c r="AV46" s="53"/>
-      <c r="AW46" s="53"/>
-      <c r="AX46" s="53"/>
-      <c r="AY46" s="53"/>
-      <c r="AZ46" s="53"/>
-      <c r="BA46" s="53"/>
-      <c r="BB46" s="53"/>
-      <c r="BC46" s="53"/>
-      <c r="BD46" s="53"/>
-      <c r="BE46" s="53"/>
-      <c r="BF46" s="54"/>
+      <c r="AM46" s="51"/>
+      <c r="AN46" s="52"/>
+      <c r="AO46" s="52"/>
+      <c r="AP46" s="41"/>
+      <c r="AQ46" s="41"/>
+      <c r="AR46" s="51"/>
+      <c r="AS46" s="52"/>
+      <c r="AT46" s="52"/>
+      <c r="AU46" s="41"/>
+      <c r="AV46" s="41"/>
+      <c r="AW46" s="41"/>
+      <c r="AX46" s="41"/>
+      <c r="AY46" s="41"/>
+      <c r="AZ46" s="41"/>
+      <c r="BA46" s="41"/>
+      <c r="BB46" s="41"/>
+      <c r="BC46" s="41"/>
+      <c r="BD46" s="41"/>
+      <c r="BE46" s="41"/>
+      <c r="BF46" s="42"/>
       <c r="BG46" s="3"/>
     </row>
     <row r="47" spans="1:59" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -3533,46 +3533,56 @@
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
       <c r="V47" s="7"/>
-      <c r="W47" s="57"/>
-      <c r="X47" s="58"/>
-      <c r="Y47" s="58"/>
-      <c r="Z47" s="59"/>
-      <c r="AA47" s="59"/>
-      <c r="AB47" s="59"/>
-      <c r="AC47" s="59"/>
-      <c r="AD47" s="59"/>
-      <c r="AE47" s="59"/>
-      <c r="AF47" s="59"/>
-      <c r="AG47" s="59"/>
-      <c r="AH47" s="59"/>
-      <c r="AI47" s="59"/>
-      <c r="AJ47" s="59"/>
-      <c r="AK47" s="60"/>
+      <c r="W47" s="45"/>
+      <c r="X47" s="46"/>
+      <c r="Y47" s="46"/>
+      <c r="Z47" s="47"/>
+      <c r="AA47" s="47"/>
+      <c r="AB47" s="47"/>
+      <c r="AC47" s="47"/>
+      <c r="AD47" s="47"/>
+      <c r="AE47" s="47"/>
+      <c r="AF47" s="47"/>
+      <c r="AG47" s="47"/>
+      <c r="AH47" s="47"/>
+      <c r="AI47" s="47"/>
+      <c r="AJ47" s="47"/>
+      <c r="AK47" s="48"/>
       <c r="AL47" s="7"/>
-      <c r="AM47" s="61"/>
-      <c r="AN47" s="62"/>
-      <c r="AO47" s="62"/>
-      <c r="AP47" s="55"/>
-      <c r="AQ47" s="55"/>
-      <c r="AR47" s="61"/>
-      <c r="AS47" s="62"/>
-      <c r="AT47" s="62"/>
-      <c r="AU47" s="55"/>
-      <c r="AV47" s="55"/>
-      <c r="AW47" s="55"/>
-      <c r="AX47" s="55"/>
-      <c r="AY47" s="55"/>
-      <c r="AZ47" s="55"/>
-      <c r="BA47" s="55"/>
-      <c r="BB47" s="55"/>
-      <c r="BC47" s="55"/>
-      <c r="BD47" s="55"/>
-      <c r="BE47" s="55"/>
-      <c r="BF47" s="56"/>
+      <c r="AM47" s="49"/>
+      <c r="AN47" s="50"/>
+      <c r="AO47" s="50"/>
+      <c r="AP47" s="43"/>
+      <c r="AQ47" s="43"/>
+      <c r="AR47" s="49"/>
+      <c r="AS47" s="50"/>
+      <c r="AT47" s="50"/>
+      <c r="AU47" s="43"/>
+      <c r="AV47" s="43"/>
+      <c r="AW47" s="43"/>
+      <c r="AX47" s="43"/>
+      <c r="AY47" s="43"/>
+      <c r="AZ47" s="43"/>
+      <c r="BA47" s="43"/>
+      <c r="BB47" s="43"/>
+      <c r="BC47" s="43"/>
+      <c r="BD47" s="43"/>
+      <c r="BE47" s="43"/>
+      <c r="BF47" s="44"/>
       <c r="BG47" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A11:BF13"/>
+    <mergeCell ref="A15:BF19"/>
+    <mergeCell ref="P27:AQ28"/>
+    <mergeCell ref="W41:AA41"/>
+    <mergeCell ref="AB41:AF41"/>
+    <mergeCell ref="AG41:AK41"/>
+    <mergeCell ref="AM41:AQ41"/>
+    <mergeCell ref="AR41:AV41"/>
+    <mergeCell ref="AW41:BA41"/>
+    <mergeCell ref="BB41:BF41"/>
     <mergeCell ref="AW42:BA46"/>
     <mergeCell ref="BB42:BF46"/>
     <mergeCell ref="BB47:BF47"/>
@@ -3587,16 +3597,6 @@
     <mergeCell ref="AG42:AK46"/>
     <mergeCell ref="AM42:AQ46"/>
     <mergeCell ref="AR42:AV46"/>
-    <mergeCell ref="A11:BF13"/>
-    <mergeCell ref="A15:BF19"/>
-    <mergeCell ref="P27:AQ28"/>
-    <mergeCell ref="W41:AA41"/>
-    <mergeCell ref="AB41:AF41"/>
-    <mergeCell ref="AG41:AK41"/>
-    <mergeCell ref="AM41:AQ41"/>
-    <mergeCell ref="AR41:AV41"/>
-    <mergeCell ref="AW41:BA41"/>
-    <mergeCell ref="BB41:BF41"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.70866141732283472" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -3625,241 +3625,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="74" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="50" t="s">
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="102"/>
+      <c r="AA1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="51"/>
-      <c r="AC1" s="51"/>
-      <c r="AD1" s="77"/>
-      <c r="AE1" s="49" t="s">
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="103"/>
+      <c r="AE1" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="51"/>
-      <c r="AG1" s="51"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="50" t="s">
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="51"/>
-      <c r="AK1" s="51"/>
-      <c r="AL1" s="77"/>
-      <c r="AM1" s="49" t="s">
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="103"/>
+      <c r="AM1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="51"/>
-      <c r="AO1" s="51"/>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="50" t="s">
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="64"/>
+      <c r="AQ1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="51"/>
-      <c r="AS1" s="51"/>
-      <c r="AT1" s="51"/>
-      <c r="AU1" s="51"/>
-      <c r="AV1" s="51"/>
-      <c r="AW1" s="51"/>
-      <c r="AX1" s="51"/>
-      <c r="AY1" s="52"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="63"/>
+      <c r="AX1" s="63"/>
+      <c r="AY1" s="64"/>
     </row>
     <row r="2" spans="1:51" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="78" t="str">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="104" t="str">
         <f>表紙!A11</f>
         <v>財務部システムVB.Net化</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="84">
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="110">
         <f>表紙!P27</f>
         <v>44172</v>
       </c>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="63" t="str">
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="51" t="str">
         <f>IF(表紙!BB42&lt;&gt;"",表紙!BB42,"")</f>
         <v>TPI</v>
       </c>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="93"/>
-      <c r="AN2" s="94"/>
-      <c r="AO2" s="94"/>
-      <c r="AP2" s="95"/>
-      <c r="AQ2" s="99"/>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="91"/>
-      <c r="AU2" s="91"/>
-      <c r="AV2" s="91"/>
-      <c r="AW2" s="91"/>
-      <c r="AX2" s="91"/>
-      <c r="AY2" s="92"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="111"/>
+      <c r="AK2" s="111"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="119"/>
+      <c r="AN2" s="120"/>
+      <c r="AO2" s="120"/>
+      <c r="AP2" s="121"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="117"/>
+      <c r="AS2" s="117"/>
+      <c r="AT2" s="117"/>
+      <c r="AU2" s="117"/>
+      <c r="AV2" s="117"/>
+      <c r="AW2" s="117"/>
+      <c r="AX2" s="117"/>
+      <c r="AY2" s="118"/>
     </row>
     <row r="3" spans="1:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="93"/>
-      <c r="AN3" s="94"/>
-      <c r="AO3" s="94"/>
-      <c r="AP3" s="95"/>
-      <c r="AQ3" s="50" t="s">
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="111"/>
+      <c r="AK3" s="111"/>
+      <c r="AL3" s="112"/>
+      <c r="AM3" s="119"/>
+      <c r="AN3" s="120"/>
+      <c r="AO3" s="120"/>
+      <c r="AP3" s="121"/>
+      <c r="AQ3" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="AR3" s="51"/>
-      <c r="AS3" s="51"/>
-      <c r="AT3" s="51"/>
-      <c r="AU3" s="51"/>
-      <c r="AV3" s="51"/>
-      <c r="AW3" s="51"/>
-      <c r="AX3" s="51"/>
-      <c r="AY3" s="52"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="64"/>
     </row>
     <row r="4" spans="1:51" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="97"/>
-      <c r="AO4" s="97"/>
-      <c r="AP4" s="98"/>
-      <c r="AQ4" s="99"/>
-      <c r="AR4" s="91"/>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="91"/>
-      <c r="AY4" s="92"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="114"/>
+      <c r="AL4" s="115"/>
+      <c r="AM4" s="122"/>
+      <c r="AN4" s="123"/>
+      <c r="AO4" s="123"/>
+      <c r="AP4" s="124"/>
+      <c r="AQ4" s="125"/>
+      <c r="AR4" s="117"/>
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="117"/>
+      <c r="AU4" s="117"/>
+      <c r="AV4" s="117"/>
+      <c r="AW4" s="117"/>
+      <c r="AX4" s="117"/>
+      <c r="AY4" s="118"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B5" s="8"/>
@@ -3887,2387 +3887,2147 @@
       <c r="X5" s="10"/>
     </row>
     <row r="6" spans="1:51" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110" t="s">
+      <c r="A6" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="110" t="s">
+      <c r="B6" s="88"/>
+      <c r="C6" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="111"/>
-      <c r="I6" s="110" t="s">
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="89"/>
+      <c r="H6" s="88"/>
+      <c r="I6" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="112"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="110" t="s">
+      <c r="J6" s="89"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="N6" s="112"/>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="112"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="110" t="s">
+      <c r="N6" s="89"/>
+      <c r="O6" s="89"/>
+      <c r="P6" s="89"/>
+      <c r="Q6" s="89"/>
+      <c r="R6" s="89"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="U6" s="112"/>
-      <c r="V6" s="112"/>
-      <c r="W6" s="111"/>
-      <c r="X6" s="113" t="s">
+      <c r="U6" s="89"/>
+      <c r="V6" s="89"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="Y6" s="113"/>
-      <c r="Z6" s="113"/>
-      <c r="AA6" s="113"/>
-      <c r="AB6" s="113"/>
-      <c r="AC6" s="113"/>
-      <c r="AD6" s="113"/>
-      <c r="AE6" s="113"/>
-      <c r="AF6" s="113"/>
-      <c r="AG6" s="113"/>
-      <c r="AH6" s="113"/>
-      <c r="AI6" s="113"/>
-      <c r="AJ6" s="113"/>
-      <c r="AK6" s="113"/>
-      <c r="AL6" s="113"/>
-      <c r="AM6" s="113"/>
-      <c r="AN6" s="113"/>
-      <c r="AO6" s="113"/>
-      <c r="AP6" s="113"/>
-      <c r="AQ6" s="113"/>
-      <c r="AR6" s="113"/>
-      <c r="AS6" s="113"/>
-      <c r="AT6" s="113"/>
-      <c r="AU6" s="113"/>
-      <c r="AV6" s="113"/>
-      <c r="AW6" s="113"/>
-      <c r="AX6" s="113"/>
-      <c r="AY6" s="113"/>
+      <c r="Y6" s="90"/>
+      <c r="Z6" s="90"/>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AD6" s="90"/>
+      <c r="AE6" s="90"/>
+      <c r="AF6" s="90"/>
+      <c r="AG6" s="90"/>
+      <c r="AH6" s="90"/>
+      <c r="AI6" s="90"/>
+      <c r="AJ6" s="90"/>
+      <c r="AK6" s="90"/>
+      <c r="AL6" s="90"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="90"/>
+      <c r="AO6" s="90"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="90"/>
+      <c r="AW6" s="90"/>
+      <c r="AX6" s="90"/>
+      <c r="AY6" s="90"/>
     </row>
     <row r="7" spans="1:51" ht="12.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="100">
+      <c r="A7" s="77">
         <v>1</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="102" t="s">
+      <c r="B7" s="78"/>
+      <c r="C7" s="79" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="103"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="103"/>
-      <c r="H7" s="104"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="100"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="108"/>
-      <c r="R7" s="108"/>
-      <c r="S7" s="101"/>
-      <c r="T7" s="100" t="s">
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="78"/>
+      <c r="T7" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="U7" s="108"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="101"/>
-      <c r="X7" s="109" t="s">
+      <c r="U7" s="85"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="78"/>
+      <c r="X7" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="109"/>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="109"/>
-      <c r="AE7" s="109"/>
-      <c r="AF7" s="109"/>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="109"/>
-      <c r="AI7" s="109"/>
-      <c r="AJ7" s="109"/>
-      <c r="AK7" s="109"/>
-      <c r="AL7" s="109"/>
-      <c r="AM7" s="109"/>
-      <c r="AN7" s="109"/>
-      <c r="AO7" s="109"/>
-      <c r="AP7" s="109"/>
-      <c r="AQ7" s="109"/>
-      <c r="AR7" s="109"/>
-      <c r="AS7" s="109"/>
-      <c r="AT7" s="109"/>
-      <c r="AU7" s="109"/>
-      <c r="AV7" s="109"/>
-      <c r="AW7" s="109"/>
-      <c r="AX7" s="109"/>
-      <c r="AY7" s="109"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="86"/>
+      <c r="AJ7" s="86"/>
+      <c r="AK7" s="86"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="86"/>
+      <c r="AO7" s="86"/>
+      <c r="AP7" s="86"/>
+      <c r="AQ7" s="86"/>
+      <c r="AR7" s="86"/>
+      <c r="AS7" s="86"/>
+      <c r="AT7" s="86"/>
+      <c r="AU7" s="86"/>
+      <c r="AV7" s="86"/>
+      <c r="AW7" s="86"/>
+      <c r="AX7" s="86"/>
+      <c r="AY7" s="86"/>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A8" s="114"/>
-      <c r="B8" s="115"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="117"/>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="118"/>
-      <c r="I8" s="119"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="122"/>
-      <c r="N8" s="123"/>
-      <c r="O8" s="123"/>
-      <c r="P8" s="123"/>
-      <c r="Q8" s="123"/>
-      <c r="R8" s="123"/>
-      <c r="S8" s="124"/>
-      <c r="T8" s="122"/>
-      <c r="U8" s="123"/>
-      <c r="V8" s="123"/>
-      <c r="W8" s="124"/>
-      <c r="X8" s="125"/>
-      <c r="Y8" s="125"/>
-      <c r="Z8" s="125"/>
-      <c r="AA8" s="125"/>
-      <c r="AB8" s="125"/>
-      <c r="AC8" s="125"/>
-      <c r="AD8" s="125"/>
-      <c r="AE8" s="125"/>
-      <c r="AF8" s="125"/>
-      <c r="AG8" s="125"/>
-      <c r="AH8" s="125"/>
-      <c r="AI8" s="125"/>
-      <c r="AJ8" s="125"/>
-      <c r="AK8" s="125"/>
-      <c r="AL8" s="125"/>
-      <c r="AM8" s="125"/>
-      <c r="AN8" s="125"/>
-      <c r="AO8" s="125"/>
-      <c r="AP8" s="125"/>
-      <c r="AQ8" s="125"/>
-      <c r="AR8" s="125"/>
-      <c r="AS8" s="125"/>
-      <c r="AT8" s="125"/>
-      <c r="AU8" s="125"/>
-      <c r="AV8" s="125"/>
-      <c r="AW8" s="125"/>
-      <c r="AX8" s="125"/>
-      <c r="AY8" s="125"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="74"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="75"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="75"/>
+      <c r="X8" s="76"/>
+      <c r="Y8" s="76"/>
+      <c r="Z8" s="76"/>
+      <c r="AA8" s="76"/>
+      <c r="AB8" s="76"/>
+      <c r="AC8" s="76"/>
+      <c r="AD8" s="76"/>
+      <c r="AE8" s="76"/>
+      <c r="AF8" s="76"/>
+      <c r="AG8" s="76"/>
+      <c r="AH8" s="76"/>
+      <c r="AI8" s="76"/>
+      <c r="AJ8" s="76"/>
+      <c r="AK8" s="76"/>
+      <c r="AL8" s="76"/>
+      <c r="AM8" s="76"/>
+      <c r="AN8" s="76"/>
+      <c r="AO8" s="76"/>
+      <c r="AP8" s="76"/>
+      <c r="AQ8" s="76"/>
+      <c r="AR8" s="76"/>
+      <c r="AS8" s="76"/>
+      <c r="AT8" s="76"/>
+      <c r="AU8" s="76"/>
+      <c r="AV8" s="76"/>
+      <c r="AW8" s="76"/>
+      <c r="AX8" s="76"/>
+      <c r="AY8" s="76"/>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A9" s="114"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="116"/>
-      <c r="D9" s="117"/>
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="123"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="123"/>
-      <c r="Q9" s="123"/>
-      <c r="R9" s="123"/>
-      <c r="S9" s="124"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="123"/>
-      <c r="V9" s="123"/>
-      <c r="W9" s="124"/>
-      <c r="X9" s="125"/>
-      <c r="Y9" s="125"/>
-      <c r="Z9" s="125"/>
-      <c r="AA9" s="125"/>
-      <c r="AB9" s="125"/>
-      <c r="AC9" s="125"/>
-      <c r="AD9" s="125"/>
-      <c r="AE9" s="125"/>
-      <c r="AF9" s="125"/>
-      <c r="AG9" s="125"/>
-      <c r="AH9" s="125"/>
-      <c r="AI9" s="125"/>
-      <c r="AJ9" s="125"/>
-      <c r="AK9" s="125"/>
-      <c r="AL9" s="125"/>
-      <c r="AM9" s="125"/>
-      <c r="AN9" s="125"/>
-      <c r="AO9" s="125"/>
-      <c r="AP9" s="125"/>
-      <c r="AQ9" s="125"/>
-      <c r="AR9" s="125"/>
-      <c r="AS9" s="125"/>
-      <c r="AT9" s="125"/>
-      <c r="AU9" s="125"/>
-      <c r="AV9" s="125"/>
-      <c r="AW9" s="125"/>
-      <c r="AX9" s="125"/>
-      <c r="AY9" s="125"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="75"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="74"/>
+      <c r="V9" s="74"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="76"/>
+      <c r="Y9" s="76"/>
+      <c r="Z9" s="76"/>
+      <c r="AA9" s="76"/>
+      <c r="AB9" s="76"/>
+      <c r="AC9" s="76"/>
+      <c r="AD9" s="76"/>
+      <c r="AE9" s="76"/>
+      <c r="AF9" s="76"/>
+      <c r="AG9" s="76"/>
+      <c r="AH9" s="76"/>
+      <c r="AI9" s="76"/>
+      <c r="AJ9" s="76"/>
+      <c r="AK9" s="76"/>
+      <c r="AL9" s="76"/>
+      <c r="AM9" s="76"/>
+      <c r="AN9" s="76"/>
+      <c r="AO9" s="76"/>
+      <c r="AP9" s="76"/>
+      <c r="AQ9" s="76"/>
+      <c r="AR9" s="76"/>
+      <c r="AS9" s="76"/>
+      <c r="AT9" s="76"/>
+      <c r="AU9" s="76"/>
+      <c r="AV9" s="76"/>
+      <c r="AW9" s="76"/>
+      <c r="AX9" s="76"/>
+      <c r="AY9" s="76"/>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A10" s="114"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="122"/>
-      <c r="N10" s="123"/>
-      <c r="O10" s="123"/>
-      <c r="P10" s="123"/>
-      <c r="Q10" s="123"/>
-      <c r="R10" s="123"/>
-      <c r="S10" s="124"/>
-      <c r="T10" s="122"/>
-      <c r="U10" s="123"/>
-      <c r="V10" s="123"/>
-      <c r="W10" s="124"/>
-      <c r="X10" s="125"/>
-      <c r="Y10" s="125"/>
-      <c r="Z10" s="125"/>
-      <c r="AA10" s="125"/>
-      <c r="AB10" s="125"/>
-      <c r="AC10" s="125"/>
-      <c r="AD10" s="125"/>
-      <c r="AE10" s="125"/>
-      <c r="AF10" s="125"/>
-      <c r="AG10" s="125"/>
-      <c r="AH10" s="125"/>
-      <c r="AI10" s="125"/>
-      <c r="AJ10" s="125"/>
-      <c r="AK10" s="125"/>
-      <c r="AL10" s="125"/>
-      <c r="AM10" s="125"/>
-      <c r="AN10" s="125"/>
-      <c r="AO10" s="125"/>
-      <c r="AP10" s="125"/>
-      <c r="AQ10" s="125"/>
-      <c r="AR10" s="125"/>
-      <c r="AS10" s="125"/>
-      <c r="AT10" s="125"/>
-      <c r="AU10" s="125"/>
-      <c r="AV10" s="125"/>
-      <c r="AW10" s="125"/>
-      <c r="AX10" s="125"/>
-      <c r="AY10" s="125"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="72"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="76"/>
+      <c r="Y10" s="76"/>
+      <c r="Z10" s="76"/>
+      <c r="AA10" s="76"/>
+      <c r="AB10" s="76"/>
+      <c r="AC10" s="76"/>
+      <c r="AD10" s="76"/>
+      <c r="AE10" s="76"/>
+      <c r="AF10" s="76"/>
+      <c r="AG10" s="76"/>
+      <c r="AH10" s="76"/>
+      <c r="AI10" s="76"/>
+      <c r="AJ10" s="76"/>
+      <c r="AK10" s="76"/>
+      <c r="AL10" s="76"/>
+      <c r="AM10" s="76"/>
+      <c r="AN10" s="76"/>
+      <c r="AO10" s="76"/>
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="76"/>
+      <c r="AR10" s="76"/>
+      <c r="AS10" s="76"/>
+      <c r="AT10" s="76"/>
+      <c r="AU10" s="76"/>
+      <c r="AV10" s="76"/>
+      <c r="AW10" s="76"/>
+      <c r="AX10" s="76"/>
+      <c r="AY10" s="76"/>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A11" s="114"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="123"/>
-      <c r="O11" s="123"/>
-      <c r="P11" s="123"/>
-      <c r="Q11" s="123"/>
-      <c r="R11" s="123"/>
-      <c r="S11" s="124"/>
-      <c r="T11" s="122"/>
-      <c r="U11" s="123"/>
-      <c r="V11" s="123"/>
-      <c r="W11" s="124"/>
-      <c r="X11" s="125"/>
-      <c r="Y11" s="125"/>
-      <c r="Z11" s="125"/>
-      <c r="AA11" s="125"/>
-      <c r="AB11" s="125"/>
-      <c r="AC11" s="125"/>
-      <c r="AD11" s="125"/>
-      <c r="AE11" s="125"/>
-      <c r="AF11" s="125"/>
-      <c r="AG11" s="125"/>
-      <c r="AH11" s="125"/>
-      <c r="AI11" s="125"/>
-      <c r="AJ11" s="125"/>
-      <c r="AK11" s="125"/>
-      <c r="AL11" s="125"/>
-      <c r="AM11" s="125"/>
-      <c r="AN11" s="125"/>
-      <c r="AO11" s="125"/>
-      <c r="AP11" s="125"/>
-      <c r="AQ11" s="125"/>
-      <c r="AR11" s="125"/>
-      <c r="AS11" s="125"/>
-      <c r="AT11" s="125"/>
-      <c r="AU11" s="125"/>
-      <c r="AV11" s="125"/>
-      <c r="AW11" s="125"/>
-      <c r="AX11" s="125"/>
-      <c r="AY11" s="125"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="72"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="74"/>
+      <c r="O11" s="74"/>
+      <c r="P11" s="74"/>
+      <c r="Q11" s="74"/>
+      <c r="R11" s="74"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="74"/>
+      <c r="V11" s="74"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="76"/>
+      <c r="AB11" s="76"/>
+      <c r="AC11" s="76"/>
+      <c r="AD11" s="76"/>
+      <c r="AE11" s="76"/>
+      <c r="AF11" s="76"/>
+      <c r="AG11" s="76"/>
+      <c r="AH11" s="76"/>
+      <c r="AI11" s="76"/>
+      <c r="AJ11" s="76"/>
+      <c r="AK11" s="76"/>
+      <c r="AL11" s="76"/>
+      <c r="AM11" s="76"/>
+      <c r="AN11" s="76"/>
+      <c r="AO11" s="76"/>
+      <c r="AP11" s="76"/>
+      <c r="AQ11" s="76"/>
+      <c r="AR11" s="76"/>
+      <c r="AS11" s="76"/>
+      <c r="AT11" s="76"/>
+      <c r="AU11" s="76"/>
+      <c r="AV11" s="76"/>
+      <c r="AW11" s="76"/>
+      <c r="AX11" s="76"/>
+      <c r="AY11" s="76"/>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A12" s="114"/>
-      <c r="B12" s="115"/>
-      <c r="C12" s="116"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="123"/>
-      <c r="O12" s="123"/>
-      <c r="P12" s="123"/>
-      <c r="Q12" s="123"/>
-      <c r="R12" s="123"/>
-      <c r="S12" s="124"/>
-      <c r="T12" s="122"/>
-      <c r="U12" s="123"/>
-      <c r="V12" s="123"/>
-      <c r="W12" s="124"/>
-      <c r="X12" s="125"/>
-      <c r="Y12" s="125"/>
-      <c r="Z12" s="125"/>
-      <c r="AA12" s="125"/>
-      <c r="AB12" s="125"/>
-      <c r="AC12" s="125"/>
-      <c r="AD12" s="125"/>
-      <c r="AE12" s="125"/>
-      <c r="AF12" s="125"/>
-      <c r="AG12" s="125"/>
-      <c r="AH12" s="125"/>
-      <c r="AI12" s="125"/>
-      <c r="AJ12" s="125"/>
-      <c r="AK12" s="125"/>
-      <c r="AL12" s="125"/>
-      <c r="AM12" s="125"/>
-      <c r="AN12" s="125"/>
-      <c r="AO12" s="125"/>
-      <c r="AP12" s="125"/>
-      <c r="AQ12" s="125"/>
-      <c r="AR12" s="125"/>
-      <c r="AS12" s="125"/>
-      <c r="AT12" s="125"/>
-      <c r="AU12" s="125"/>
-      <c r="AV12" s="125"/>
-      <c r="AW12" s="125"/>
-      <c r="AX12" s="125"/>
-      <c r="AY12" s="125"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="72"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="74"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="76"/>
+      <c r="AL12" s="76"/>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="76"/>
+      <c r="AO12" s="76"/>
+      <c r="AP12" s="76"/>
+      <c r="AQ12" s="76"/>
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="76"/>
+      <c r="AT12" s="76"/>
+      <c r="AU12" s="76"/>
+      <c r="AV12" s="76"/>
+      <c r="AW12" s="76"/>
+      <c r="AX12" s="76"/>
+      <c r="AY12" s="76"/>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A13" s="114"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="123"/>
-      <c r="O13" s="123"/>
-      <c r="P13" s="123"/>
-      <c r="Q13" s="123"/>
-      <c r="R13" s="123"/>
-      <c r="S13" s="124"/>
-      <c r="T13" s="122"/>
-      <c r="U13" s="123"/>
-      <c r="V13" s="123"/>
-      <c r="W13" s="124"/>
-      <c r="X13" s="125"/>
-      <c r="Y13" s="125"/>
-      <c r="Z13" s="125"/>
-      <c r="AA13" s="125"/>
-      <c r="AB13" s="125"/>
-      <c r="AC13" s="125"/>
-      <c r="AD13" s="125"/>
-      <c r="AE13" s="125"/>
-      <c r="AF13" s="125"/>
-      <c r="AG13" s="125"/>
-      <c r="AH13" s="125"/>
-      <c r="AI13" s="125"/>
-      <c r="AJ13" s="125"/>
-      <c r="AK13" s="125"/>
-      <c r="AL13" s="125"/>
-      <c r="AM13" s="125"/>
-      <c r="AN13" s="125"/>
-      <c r="AO13" s="125"/>
-      <c r="AP13" s="125"/>
-      <c r="AQ13" s="125"/>
-      <c r="AR13" s="125"/>
-      <c r="AS13" s="125"/>
-      <c r="AT13" s="125"/>
-      <c r="AU13" s="125"/>
-      <c r="AV13" s="125"/>
-      <c r="AW13" s="125"/>
-      <c r="AX13" s="125"/>
-      <c r="AY13" s="125"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="72"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="74"/>
+      <c r="O13" s="74"/>
+      <c r="P13" s="74"/>
+      <c r="Q13" s="74"/>
+      <c r="R13" s="74"/>
+      <c r="S13" s="75"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="74"/>
+      <c r="V13" s="74"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="76"/>
+      <c r="Y13" s="76"/>
+      <c r="Z13" s="76"/>
+      <c r="AA13" s="76"/>
+      <c r="AB13" s="76"/>
+      <c r="AC13" s="76"/>
+      <c r="AD13" s="76"/>
+      <c r="AE13" s="76"/>
+      <c r="AF13" s="76"/>
+      <c r="AG13" s="76"/>
+      <c r="AH13" s="76"/>
+      <c r="AI13" s="76"/>
+      <c r="AJ13" s="76"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="76"/>
+      <c r="AM13" s="76"/>
+      <c r="AN13" s="76"/>
+      <c r="AO13" s="76"/>
+      <c r="AP13" s="76"/>
+      <c r="AQ13" s="76"/>
+      <c r="AR13" s="76"/>
+      <c r="AS13" s="76"/>
+      <c r="AT13" s="76"/>
+      <c r="AU13" s="76"/>
+      <c r="AV13" s="76"/>
+      <c r="AW13" s="76"/>
+      <c r="AX13" s="76"/>
+      <c r="AY13" s="76"/>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A14" s="114"/>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="123"/>
-      <c r="O14" s="123"/>
-      <c r="P14" s="123"/>
-      <c r="Q14" s="123"/>
-      <c r="R14" s="123"/>
-      <c r="S14" s="124"/>
-      <c r="T14" s="122"/>
-      <c r="U14" s="123"/>
-      <c r="V14" s="123"/>
-      <c r="W14" s="124"/>
-      <c r="X14" s="125"/>
-      <c r="Y14" s="125"/>
-      <c r="Z14" s="125"/>
-      <c r="AA14" s="125"/>
-      <c r="AB14" s="125"/>
-      <c r="AC14" s="125"/>
-      <c r="AD14" s="125"/>
-      <c r="AE14" s="125"/>
-      <c r="AF14" s="125"/>
-      <c r="AG14" s="125"/>
-      <c r="AH14" s="125"/>
-      <c r="AI14" s="125"/>
-      <c r="AJ14" s="125"/>
-      <c r="AK14" s="125"/>
-      <c r="AL14" s="125"/>
-      <c r="AM14" s="125"/>
-      <c r="AN14" s="125"/>
-      <c r="AO14" s="125"/>
-      <c r="AP14" s="125"/>
-      <c r="AQ14" s="125"/>
-      <c r="AR14" s="125"/>
-      <c r="AS14" s="125"/>
-      <c r="AT14" s="125"/>
-      <c r="AU14" s="125"/>
-      <c r="AV14" s="125"/>
-      <c r="AW14" s="125"/>
-      <c r="AX14" s="125"/>
-      <c r="AY14" s="125"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="74"/>
+      <c r="Q14" s="74"/>
+      <c r="R14" s="74"/>
+      <c r="S14" s="75"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="74"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="76"/>
+      <c r="Y14" s="76"/>
+      <c r="Z14" s="76"/>
+      <c r="AA14" s="76"/>
+      <c r="AB14" s="76"/>
+      <c r="AC14" s="76"/>
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="76"/>
+      <c r="AF14" s="76"/>
+      <c r="AG14" s="76"/>
+      <c r="AH14" s="76"/>
+      <c r="AI14" s="76"/>
+      <c r="AJ14" s="76"/>
+      <c r="AK14" s="76"/>
+      <c r="AL14" s="76"/>
+      <c r="AM14" s="76"/>
+      <c r="AN14" s="76"/>
+      <c r="AO14" s="76"/>
+      <c r="AP14" s="76"/>
+      <c r="AQ14" s="76"/>
+      <c r="AR14" s="76"/>
+      <c r="AS14" s="76"/>
+      <c r="AT14" s="76"/>
+      <c r="AU14" s="76"/>
+      <c r="AV14" s="76"/>
+      <c r="AW14" s="76"/>
+      <c r="AX14" s="76"/>
+      <c r="AY14" s="76"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A15" s="114"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="116"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="123"/>
-      <c r="O15" s="123"/>
-      <c r="P15" s="123"/>
-      <c r="Q15" s="123"/>
-      <c r="R15" s="123"/>
-      <c r="S15" s="124"/>
-      <c r="T15" s="122"/>
-      <c r="U15" s="123"/>
-      <c r="V15" s="123"/>
-      <c r="W15" s="124"/>
-      <c r="X15" s="125"/>
-      <c r="Y15" s="125"/>
-      <c r="Z15" s="125"/>
-      <c r="AA15" s="125"/>
-      <c r="AB15" s="125"/>
-      <c r="AC15" s="125"/>
-      <c r="AD15" s="125"/>
-      <c r="AE15" s="125"/>
-      <c r="AF15" s="125"/>
-      <c r="AG15" s="125"/>
-      <c r="AH15" s="125"/>
-      <c r="AI15" s="125"/>
-      <c r="AJ15" s="125"/>
-      <c r="AK15" s="125"/>
-      <c r="AL15" s="125"/>
-      <c r="AM15" s="125"/>
-      <c r="AN15" s="125"/>
-      <c r="AO15" s="125"/>
-      <c r="AP15" s="125"/>
-      <c r="AQ15" s="125"/>
-      <c r="AR15" s="125"/>
-      <c r="AS15" s="125"/>
-      <c r="AT15" s="125"/>
-      <c r="AU15" s="125"/>
-      <c r="AV15" s="125"/>
-      <c r="AW15" s="125"/>
-      <c r="AX15" s="125"/>
-      <c r="AY15" s="125"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="71"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="72"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="74"/>
+      <c r="P15" s="74"/>
+      <c r="Q15" s="74"/>
+      <c r="R15" s="74"/>
+      <c r="S15" s="75"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="74"/>
+      <c r="V15" s="74"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="76"/>
+      <c r="Y15" s="76"/>
+      <c r="Z15" s="76"/>
+      <c r="AA15" s="76"/>
+      <c r="AB15" s="76"/>
+      <c r="AC15" s="76"/>
+      <c r="AD15" s="76"/>
+      <c r="AE15" s="76"/>
+      <c r="AF15" s="76"/>
+      <c r="AG15" s="76"/>
+      <c r="AH15" s="76"/>
+      <c r="AI15" s="76"/>
+      <c r="AJ15" s="76"/>
+      <c r="AK15" s="76"/>
+      <c r="AL15" s="76"/>
+      <c r="AM15" s="76"/>
+      <c r="AN15" s="76"/>
+      <c r="AO15" s="76"/>
+      <c r="AP15" s="76"/>
+      <c r="AQ15" s="76"/>
+      <c r="AR15" s="76"/>
+      <c r="AS15" s="76"/>
+      <c r="AT15" s="76"/>
+      <c r="AU15" s="76"/>
+      <c r="AV15" s="76"/>
+      <c r="AW15" s="76"/>
+      <c r="AX15" s="76"/>
+      <c r="AY15" s="76"/>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A16" s="114"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="116"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="123"/>
-      <c r="O16" s="123"/>
-      <c r="P16" s="123"/>
-      <c r="Q16" s="123"/>
-      <c r="R16" s="123"/>
-      <c r="S16" s="124"/>
-      <c r="T16" s="122"/>
-      <c r="U16" s="123"/>
-      <c r="V16" s="123"/>
-      <c r="W16" s="124"/>
-      <c r="X16" s="125"/>
-      <c r="Y16" s="125"/>
-      <c r="Z16" s="125"/>
-      <c r="AA16" s="125"/>
-      <c r="AB16" s="125"/>
-      <c r="AC16" s="125"/>
-      <c r="AD16" s="125"/>
-      <c r="AE16" s="125"/>
-      <c r="AF16" s="125"/>
-      <c r="AG16" s="125"/>
-      <c r="AH16" s="125"/>
-      <c r="AI16" s="125"/>
-      <c r="AJ16" s="125"/>
-      <c r="AK16" s="125"/>
-      <c r="AL16" s="125"/>
-      <c r="AM16" s="125"/>
-      <c r="AN16" s="125"/>
-      <c r="AO16" s="125"/>
-      <c r="AP16" s="125"/>
-      <c r="AQ16" s="125"/>
-      <c r="AR16" s="125"/>
-      <c r="AS16" s="125"/>
-      <c r="AT16" s="125"/>
-      <c r="AU16" s="125"/>
-      <c r="AV16" s="125"/>
-      <c r="AW16" s="125"/>
-      <c r="AX16" s="125"/>
-      <c r="AY16" s="125"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="72"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="74"/>
+      <c r="R16" s="74"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="76"/>
+      <c r="Z16" s="76"/>
+      <c r="AA16" s="76"/>
+      <c r="AB16" s="76"/>
+      <c r="AC16" s="76"/>
+      <c r="AD16" s="76"/>
+      <c r="AE16" s="76"/>
+      <c r="AF16" s="76"/>
+      <c r="AG16" s="76"/>
+      <c r="AH16" s="76"/>
+      <c r="AI16" s="76"/>
+      <c r="AJ16" s="76"/>
+      <c r="AK16" s="76"/>
+      <c r="AL16" s="76"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="76"/>
+      <c r="AO16" s="76"/>
+      <c r="AP16" s="76"/>
+      <c r="AQ16" s="76"/>
+      <c r="AR16" s="76"/>
+      <c r="AS16" s="76"/>
+      <c r="AT16" s="76"/>
+      <c r="AU16" s="76"/>
+      <c r="AV16" s="76"/>
+      <c r="AW16" s="76"/>
+      <c r="AX16" s="76"/>
+      <c r="AY16" s="76"/>
     </row>
     <row r="17" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A17" s="114"/>
-      <c r="B17" s="115"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="124"/>
-      <c r="T17" s="122"/>
-      <c r="U17" s="123"/>
-      <c r="V17" s="123"/>
-      <c r="W17" s="124"/>
-      <c r="X17" s="125"/>
-      <c r="Y17" s="125"/>
-      <c r="Z17" s="125"/>
-      <c r="AA17" s="125"/>
-      <c r="AB17" s="125"/>
-      <c r="AC17" s="125"/>
-      <c r="AD17" s="125"/>
-      <c r="AE17" s="125"/>
-      <c r="AF17" s="125"/>
-      <c r="AG17" s="125"/>
-      <c r="AH17" s="125"/>
-      <c r="AI17" s="125"/>
-      <c r="AJ17" s="125"/>
-      <c r="AK17" s="125"/>
-      <c r="AL17" s="125"/>
-      <c r="AM17" s="125"/>
-      <c r="AN17" s="125"/>
-      <c r="AO17" s="125"/>
-      <c r="AP17" s="125"/>
-      <c r="AQ17" s="125"/>
-      <c r="AR17" s="125"/>
-      <c r="AS17" s="125"/>
-      <c r="AT17" s="125"/>
-      <c r="AU17" s="125"/>
-      <c r="AV17" s="125"/>
-      <c r="AW17" s="125"/>
-      <c r="AX17" s="125"/>
-      <c r="AY17" s="125"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="72"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74"/>
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74"/>
+      <c r="S17" s="75"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="74"/>
+      <c r="V17" s="74"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="76"/>
+      <c r="Y17" s="76"/>
+      <c r="Z17" s="76"/>
+      <c r="AA17" s="76"/>
+      <c r="AB17" s="76"/>
+      <c r="AC17" s="76"/>
+      <c r="AD17" s="76"/>
+      <c r="AE17" s="76"/>
+      <c r="AF17" s="76"/>
+      <c r="AG17" s="76"/>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="76"/>
+      <c r="AJ17" s="76"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="76"/>
+      <c r="AP17" s="76"/>
+      <c r="AQ17" s="76"/>
+      <c r="AR17" s="76"/>
+      <c r="AS17" s="76"/>
+      <c r="AT17" s="76"/>
+      <c r="AU17" s="76"/>
+      <c r="AV17" s="76"/>
+      <c r="AW17" s="76"/>
+      <c r="AX17" s="76"/>
+      <c r="AY17" s="76"/>
     </row>
     <row r="18" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A18" s="114"/>
-      <c r="B18" s="115"/>
-      <c r="C18" s="116"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="121"/>
-      <c r="M18" s="122"/>
-      <c r="N18" s="123"/>
-      <c r="O18" s="123"/>
-      <c r="P18" s="123"/>
-      <c r="Q18" s="123"/>
-      <c r="R18" s="123"/>
-      <c r="S18" s="124"/>
-      <c r="T18" s="122"/>
-      <c r="U18" s="123"/>
-      <c r="V18" s="123"/>
-      <c r="W18" s="124"/>
-      <c r="X18" s="125"/>
-      <c r="Y18" s="125"/>
-      <c r="Z18" s="125"/>
-      <c r="AA18" s="125"/>
-      <c r="AB18" s="125"/>
-      <c r="AC18" s="125"/>
-      <c r="AD18" s="125"/>
-      <c r="AE18" s="125"/>
-      <c r="AF18" s="125"/>
-      <c r="AG18" s="125"/>
-      <c r="AH18" s="125"/>
-      <c r="AI18" s="125"/>
-      <c r="AJ18" s="125"/>
-      <c r="AK18" s="125"/>
-      <c r="AL18" s="125"/>
-      <c r="AM18" s="125"/>
-      <c r="AN18" s="125"/>
-      <c r="AO18" s="125"/>
-      <c r="AP18" s="125"/>
-      <c r="AQ18" s="125"/>
-      <c r="AR18" s="125"/>
-      <c r="AS18" s="125"/>
-      <c r="AT18" s="125"/>
-      <c r="AU18" s="125"/>
-      <c r="AV18" s="125"/>
-      <c r="AW18" s="125"/>
-      <c r="AX18" s="125"/>
-      <c r="AY18" s="125"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="71"/>
+      <c r="K18" s="71"/>
+      <c r="L18" s="72"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="74"/>
+      <c r="P18" s="74"/>
+      <c r="Q18" s="74"/>
+      <c r="R18" s="74"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="74"/>
+      <c r="V18" s="74"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="76"/>
+      <c r="Y18" s="76"/>
+      <c r="Z18" s="76"/>
+      <c r="AA18" s="76"/>
+      <c r="AB18" s="76"/>
+      <c r="AC18" s="76"/>
+      <c r="AD18" s="76"/>
+      <c r="AE18" s="76"/>
+      <c r="AF18" s="76"/>
+      <c r="AG18" s="76"/>
+      <c r="AH18" s="76"/>
+      <c r="AI18" s="76"/>
+      <c r="AJ18" s="76"/>
+      <c r="AK18" s="76"/>
+      <c r="AL18" s="76"/>
+      <c r="AM18" s="76"/>
+      <c r="AN18" s="76"/>
+      <c r="AO18" s="76"/>
+      <c r="AP18" s="76"/>
+      <c r="AQ18" s="76"/>
+      <c r="AR18" s="76"/>
+      <c r="AS18" s="76"/>
+      <c r="AT18" s="76"/>
+      <c r="AU18" s="76"/>
+      <c r="AV18" s="76"/>
+      <c r="AW18" s="76"/>
+      <c r="AX18" s="76"/>
+      <c r="AY18" s="76"/>
     </row>
     <row r="19" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A19" s="114"/>
-      <c r="B19" s="115"/>
-      <c r="C19" s="116"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="123"/>
-      <c r="O19" s="123"/>
-      <c r="P19" s="123"/>
-      <c r="Q19" s="123"/>
-      <c r="R19" s="123"/>
-      <c r="S19" s="124"/>
-      <c r="T19" s="122"/>
-      <c r="U19" s="123"/>
-      <c r="V19" s="123"/>
-      <c r="W19" s="124"/>
-      <c r="X19" s="125"/>
-      <c r="Y19" s="125"/>
-      <c r="Z19" s="125"/>
-      <c r="AA19" s="125"/>
-      <c r="AB19" s="125"/>
-      <c r="AC19" s="125"/>
-      <c r="AD19" s="125"/>
-      <c r="AE19" s="125"/>
-      <c r="AF19" s="125"/>
-      <c r="AG19" s="125"/>
-      <c r="AH19" s="125"/>
-      <c r="AI19" s="125"/>
-      <c r="AJ19" s="125"/>
-      <c r="AK19" s="125"/>
-      <c r="AL19" s="125"/>
-      <c r="AM19" s="125"/>
-      <c r="AN19" s="125"/>
-      <c r="AO19" s="125"/>
-      <c r="AP19" s="125"/>
-      <c r="AQ19" s="125"/>
-      <c r="AR19" s="125"/>
-      <c r="AS19" s="125"/>
-      <c r="AT19" s="125"/>
-      <c r="AU19" s="125"/>
-      <c r="AV19" s="125"/>
-      <c r="AW19" s="125"/>
-      <c r="AX19" s="125"/>
-      <c r="AY19" s="125"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="74"/>
+      <c r="O19" s="74"/>
+      <c r="P19" s="74"/>
+      <c r="Q19" s="74"/>
+      <c r="R19" s="74"/>
+      <c r="S19" s="75"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="74"/>
+      <c r="V19" s="74"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="76"/>
+      <c r="Y19" s="76"/>
+      <c r="Z19" s="76"/>
+      <c r="AA19" s="76"/>
+      <c r="AB19" s="76"/>
+      <c r="AC19" s="76"/>
+      <c r="AD19" s="76"/>
+      <c r="AE19" s="76"/>
+      <c r="AF19" s="76"/>
+      <c r="AG19" s="76"/>
+      <c r="AH19" s="76"/>
+      <c r="AI19" s="76"/>
+      <c r="AJ19" s="76"/>
+      <c r="AK19" s="76"/>
+      <c r="AL19" s="76"/>
+      <c r="AM19" s="76"/>
+      <c r="AN19" s="76"/>
+      <c r="AO19" s="76"/>
+      <c r="AP19" s="76"/>
+      <c r="AQ19" s="76"/>
+      <c r="AR19" s="76"/>
+      <c r="AS19" s="76"/>
+      <c r="AT19" s="76"/>
+      <c r="AU19" s="76"/>
+      <c r="AV19" s="76"/>
+      <c r="AW19" s="76"/>
+      <c r="AX19" s="76"/>
+      <c r="AY19" s="76"/>
     </row>
     <row r="20" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A20" s="114"/>
-      <c r="B20" s="115"/>
-      <c r="C20" s="116"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="123"/>
-      <c r="O20" s="123"/>
-      <c r="P20" s="123"/>
-      <c r="Q20" s="123"/>
-      <c r="R20" s="123"/>
-      <c r="S20" s="124"/>
-      <c r="T20" s="122"/>
-      <c r="U20" s="123"/>
-      <c r="V20" s="123"/>
-      <c r="W20" s="124"/>
-      <c r="X20" s="125"/>
-      <c r="Y20" s="125"/>
-      <c r="Z20" s="125"/>
-      <c r="AA20" s="125"/>
-      <c r="AB20" s="125"/>
-      <c r="AC20" s="125"/>
-      <c r="AD20" s="125"/>
-      <c r="AE20" s="125"/>
-      <c r="AF20" s="125"/>
-      <c r="AG20" s="125"/>
-      <c r="AH20" s="125"/>
-      <c r="AI20" s="125"/>
-      <c r="AJ20" s="125"/>
-      <c r="AK20" s="125"/>
-      <c r="AL20" s="125"/>
-      <c r="AM20" s="125"/>
-      <c r="AN20" s="125"/>
-      <c r="AO20" s="125"/>
-      <c r="AP20" s="125"/>
-      <c r="AQ20" s="125"/>
-      <c r="AR20" s="125"/>
-      <c r="AS20" s="125"/>
-      <c r="AT20" s="125"/>
-      <c r="AU20" s="125"/>
-      <c r="AV20" s="125"/>
-      <c r="AW20" s="125"/>
-      <c r="AX20" s="125"/>
-      <c r="AY20" s="125"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="71"/>
+      <c r="K20" s="71"/>
+      <c r="L20" s="72"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="74"/>
+      <c r="P20" s="74"/>
+      <c r="Q20" s="74"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="74"/>
+      <c r="V20" s="74"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="76"/>
+      <c r="AJ20" s="76"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="76"/>
+      <c r="AM20" s="76"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="76"/>
+      <c r="AQ20" s="76"/>
+      <c r="AR20" s="76"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="76"/>
+      <c r="AU20" s="76"/>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="76"/>
+      <c r="AY20" s="76"/>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A21" s="114"/>
-      <c r="B21" s="115"/>
-      <c r="C21" s="116"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="123"/>
-      <c r="O21" s="123"/>
-      <c r="P21" s="123"/>
-      <c r="Q21" s="123"/>
-      <c r="R21" s="123"/>
-      <c r="S21" s="124"/>
-      <c r="T21" s="122"/>
-      <c r="U21" s="123"/>
-      <c r="V21" s="123"/>
-      <c r="W21" s="124"/>
-      <c r="X21" s="125"/>
-      <c r="Y21" s="125"/>
-      <c r="Z21" s="125"/>
-      <c r="AA21" s="125"/>
-      <c r="AB21" s="125"/>
-      <c r="AC21" s="125"/>
-      <c r="AD21" s="125"/>
-      <c r="AE21" s="125"/>
-      <c r="AF21" s="125"/>
-      <c r="AG21" s="125"/>
-      <c r="AH21" s="125"/>
-      <c r="AI21" s="125"/>
-      <c r="AJ21" s="125"/>
-      <c r="AK21" s="125"/>
-      <c r="AL21" s="125"/>
-      <c r="AM21" s="125"/>
-      <c r="AN21" s="125"/>
-      <c r="AO21" s="125"/>
-      <c r="AP21" s="125"/>
-      <c r="AQ21" s="125"/>
-      <c r="AR21" s="125"/>
-      <c r="AS21" s="125"/>
-      <c r="AT21" s="125"/>
-      <c r="AU21" s="125"/>
-      <c r="AV21" s="125"/>
-      <c r="AW21" s="125"/>
-      <c r="AX21" s="125"/>
-      <c r="AY21" s="125"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="66"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="71"/>
+      <c r="K21" s="71"/>
+      <c r="L21" s="72"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="74"/>
+      <c r="O21" s="74"/>
+      <c r="P21" s="74"/>
+      <c r="Q21" s="74"/>
+      <c r="R21" s="74"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="74"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="76"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="76"/>
+      <c r="AC21" s="76"/>
+      <c r="AD21" s="76"/>
+      <c r="AE21" s="76"/>
+      <c r="AF21" s="76"/>
+      <c r="AG21" s="76"/>
+      <c r="AH21" s="76"/>
+      <c r="AI21" s="76"/>
+      <c r="AJ21" s="76"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="76"/>
+      <c r="AM21" s="76"/>
+      <c r="AN21" s="76"/>
+      <c r="AO21" s="76"/>
+      <c r="AP21" s="76"/>
+      <c r="AQ21" s="76"/>
+      <c r="AR21" s="76"/>
+      <c r="AS21" s="76"/>
+      <c r="AT21" s="76"/>
+      <c r="AU21" s="76"/>
+      <c r="AV21" s="76"/>
+      <c r="AW21" s="76"/>
+      <c r="AX21" s="76"/>
+      <c r="AY21" s="76"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A22" s="114"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="116"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="123"/>
-      <c r="O22" s="123"/>
-      <c r="P22" s="123"/>
-      <c r="Q22" s="123"/>
-      <c r="R22" s="123"/>
-      <c r="S22" s="124"/>
-      <c r="T22" s="122"/>
-      <c r="U22" s="123"/>
-      <c r="V22" s="123"/>
-      <c r="W22" s="124"/>
-      <c r="X22" s="125"/>
-      <c r="Y22" s="125"/>
-      <c r="Z22" s="125"/>
-      <c r="AA22" s="125"/>
-      <c r="AB22" s="125"/>
-      <c r="AC22" s="125"/>
-      <c r="AD22" s="125"/>
-      <c r="AE22" s="125"/>
-      <c r="AF22" s="125"/>
-      <c r="AG22" s="125"/>
-      <c r="AH22" s="125"/>
-      <c r="AI22" s="125"/>
-      <c r="AJ22" s="125"/>
-      <c r="AK22" s="125"/>
-      <c r="AL22" s="125"/>
-      <c r="AM22" s="125"/>
-      <c r="AN22" s="125"/>
-      <c r="AO22" s="125"/>
-      <c r="AP22" s="125"/>
-      <c r="AQ22" s="125"/>
-      <c r="AR22" s="125"/>
-      <c r="AS22" s="125"/>
-      <c r="AT22" s="125"/>
-      <c r="AU22" s="125"/>
-      <c r="AV22" s="125"/>
-      <c r="AW22" s="125"/>
-      <c r="AX22" s="125"/>
-      <c r="AY22" s="125"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="72"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="74"/>
+      <c r="P22" s="74"/>
+      <c r="Q22" s="74"/>
+      <c r="R22" s="74"/>
+      <c r="S22" s="75"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="74"/>
+      <c r="V22" s="74"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="76"/>
+      <c r="Y22" s="76"/>
+      <c r="Z22" s="76"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="76"/>
+      <c r="AC22" s="76"/>
+      <c r="AD22" s="76"/>
+      <c r="AE22" s="76"/>
+      <c r="AF22" s="76"/>
+      <c r="AG22" s="76"/>
+      <c r="AH22" s="76"/>
+      <c r="AI22" s="76"/>
+      <c r="AJ22" s="76"/>
+      <c r="AK22" s="76"/>
+      <c r="AL22" s="76"/>
+      <c r="AM22" s="76"/>
+      <c r="AN22" s="76"/>
+      <c r="AO22" s="76"/>
+      <c r="AP22" s="76"/>
+      <c r="AQ22" s="76"/>
+      <c r="AR22" s="76"/>
+      <c r="AS22" s="76"/>
+      <c r="AT22" s="76"/>
+      <c r="AU22" s="76"/>
+      <c r="AV22" s="76"/>
+      <c r="AW22" s="76"/>
+      <c r="AX22" s="76"/>
+      <c r="AY22" s="76"/>
     </row>
     <row r="23" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A23" s="114"/>
-      <c r="B23" s="115"/>
-      <c r="C23" s="116"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="120"/>
-      <c r="K23" s="120"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="122"/>
-      <c r="N23" s="123"/>
-      <c r="O23" s="123"/>
-      <c r="P23" s="123"/>
-      <c r="Q23" s="123"/>
-      <c r="R23" s="123"/>
-      <c r="S23" s="124"/>
-      <c r="T23" s="122"/>
-      <c r="U23" s="123"/>
-      <c r="V23" s="123"/>
-      <c r="W23" s="124"/>
-      <c r="X23" s="125"/>
-      <c r="Y23" s="125"/>
-      <c r="Z23" s="125"/>
-      <c r="AA23" s="125"/>
-      <c r="AB23" s="125"/>
-      <c r="AC23" s="125"/>
-      <c r="AD23" s="125"/>
-      <c r="AE23" s="125"/>
-      <c r="AF23" s="125"/>
-      <c r="AG23" s="125"/>
-      <c r="AH23" s="125"/>
-      <c r="AI23" s="125"/>
-      <c r="AJ23" s="125"/>
-      <c r="AK23" s="125"/>
-      <c r="AL23" s="125"/>
-      <c r="AM23" s="125"/>
-      <c r="AN23" s="125"/>
-      <c r="AO23" s="125"/>
-      <c r="AP23" s="125"/>
-      <c r="AQ23" s="125"/>
-      <c r="AR23" s="125"/>
-      <c r="AS23" s="125"/>
-      <c r="AT23" s="125"/>
-      <c r="AU23" s="125"/>
-      <c r="AV23" s="125"/>
-      <c r="AW23" s="125"/>
-      <c r="AX23" s="125"/>
-      <c r="AY23" s="125"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="71"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74"/>
+      <c r="S23" s="75"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="76"/>
+      <c r="Y23" s="76"/>
+      <c r="Z23" s="76"/>
+      <c r="AA23" s="76"/>
+      <c r="AB23" s="76"/>
+      <c r="AC23" s="76"/>
+      <c r="AD23" s="76"/>
+      <c r="AE23" s="76"/>
+      <c r="AF23" s="76"/>
+      <c r="AG23" s="76"/>
+      <c r="AH23" s="76"/>
+      <c r="AI23" s="76"/>
+      <c r="AJ23" s="76"/>
+      <c r="AK23" s="76"/>
+      <c r="AL23" s="76"/>
+      <c r="AM23" s="76"/>
+      <c r="AN23" s="76"/>
+      <c r="AO23" s="76"/>
+      <c r="AP23" s="76"/>
+      <c r="AQ23" s="76"/>
+      <c r="AR23" s="76"/>
+      <c r="AS23" s="76"/>
+      <c r="AT23" s="76"/>
+      <c r="AU23" s="76"/>
+      <c r="AV23" s="76"/>
+      <c r="AW23" s="76"/>
+      <c r="AX23" s="76"/>
+      <c r="AY23" s="76"/>
     </row>
     <row r="24" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A24" s="114"/>
-      <c r="B24" s="115"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="117"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="120"/>
-      <c r="K24" s="120"/>
-      <c r="L24" s="121"/>
-      <c r="M24" s="122"/>
-      <c r="N24" s="123"/>
-      <c r="O24" s="123"/>
-      <c r="P24" s="123"/>
-      <c r="Q24" s="123"/>
-      <c r="R24" s="123"/>
-      <c r="S24" s="124"/>
-      <c r="T24" s="122"/>
-      <c r="U24" s="123"/>
-      <c r="V24" s="123"/>
-      <c r="W24" s="124"/>
-      <c r="X24" s="125"/>
-      <c r="Y24" s="125"/>
-      <c r="Z24" s="125"/>
-      <c r="AA24" s="125"/>
-      <c r="AB24" s="125"/>
-      <c r="AC24" s="125"/>
-      <c r="AD24" s="125"/>
-      <c r="AE24" s="125"/>
-      <c r="AF24" s="125"/>
-      <c r="AG24" s="125"/>
-      <c r="AH24" s="125"/>
-      <c r="AI24" s="125"/>
-      <c r="AJ24" s="125"/>
-      <c r="AK24" s="125"/>
-      <c r="AL24" s="125"/>
-      <c r="AM24" s="125"/>
-      <c r="AN24" s="125"/>
-      <c r="AO24" s="125"/>
-      <c r="AP24" s="125"/>
-      <c r="AQ24" s="125"/>
-      <c r="AR24" s="125"/>
-      <c r="AS24" s="125"/>
-      <c r="AT24" s="125"/>
-      <c r="AU24" s="125"/>
-      <c r="AV24" s="125"/>
-      <c r="AW24" s="125"/>
-      <c r="AX24" s="125"/>
-      <c r="AY24" s="125"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="66"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="71"/>
+      <c r="L24" s="72"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="74"/>
+      <c r="P24" s="74"/>
+      <c r="Q24" s="74"/>
+      <c r="R24" s="74"/>
+      <c r="S24" s="75"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="75"/>
+      <c r="X24" s="76"/>
+      <c r="Y24" s="76"/>
+      <c r="Z24" s="76"/>
+      <c r="AA24" s="76"/>
+      <c r="AB24" s="76"/>
+      <c r="AC24" s="76"/>
+      <c r="AD24" s="76"/>
+      <c r="AE24" s="76"/>
+      <c r="AF24" s="76"/>
+      <c r="AG24" s="76"/>
+      <c r="AH24" s="76"/>
+      <c r="AI24" s="76"/>
+      <c r="AJ24" s="76"/>
+      <c r="AK24" s="76"/>
+      <c r="AL24" s="76"/>
+      <c r="AM24" s="76"/>
+      <c r="AN24" s="76"/>
+      <c r="AO24" s="76"/>
+      <c r="AP24" s="76"/>
+      <c r="AQ24" s="76"/>
+      <c r="AR24" s="76"/>
+      <c r="AS24" s="76"/>
+      <c r="AT24" s="76"/>
+      <c r="AU24" s="76"/>
+      <c r="AV24" s="76"/>
+      <c r="AW24" s="76"/>
+      <c r="AX24" s="76"/>
+      <c r="AY24" s="76"/>
     </row>
     <row r="25" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A25" s="114"/>
-      <c r="B25" s="115"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="120"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="123"/>
-      <c r="O25" s="123"/>
-      <c r="P25" s="123"/>
-      <c r="Q25" s="123"/>
-      <c r="R25" s="123"/>
-      <c r="S25" s="124"/>
-      <c r="T25" s="122"/>
-      <c r="U25" s="123"/>
-      <c r="V25" s="123"/>
-      <c r="W25" s="124"/>
-      <c r="X25" s="125"/>
-      <c r="Y25" s="125"/>
-      <c r="Z25" s="125"/>
-      <c r="AA25" s="125"/>
-      <c r="AB25" s="125"/>
-      <c r="AC25" s="125"/>
-      <c r="AD25" s="125"/>
-      <c r="AE25" s="125"/>
-      <c r="AF25" s="125"/>
-      <c r="AG25" s="125"/>
-      <c r="AH25" s="125"/>
-      <c r="AI25" s="125"/>
-      <c r="AJ25" s="125"/>
-      <c r="AK25" s="125"/>
-      <c r="AL25" s="125"/>
-      <c r="AM25" s="125"/>
-      <c r="AN25" s="125"/>
-      <c r="AO25" s="125"/>
-      <c r="AP25" s="125"/>
-      <c r="AQ25" s="125"/>
-      <c r="AR25" s="125"/>
-      <c r="AS25" s="125"/>
-      <c r="AT25" s="125"/>
-      <c r="AU25" s="125"/>
-      <c r="AV25" s="125"/>
-      <c r="AW25" s="125"/>
-      <c r="AX25" s="125"/>
-      <c r="AY25" s="125"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="71"/>
+      <c r="K25" s="71"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="74"/>
+      <c r="O25" s="74"/>
+      <c r="P25" s="74"/>
+      <c r="Q25" s="74"/>
+      <c r="R25" s="74"/>
+      <c r="S25" s="75"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="74"/>
+      <c r="V25" s="74"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="76"/>
+      <c r="Y25" s="76"/>
+      <c r="Z25" s="76"/>
+      <c r="AA25" s="76"/>
+      <c r="AB25" s="76"/>
+      <c r="AC25" s="76"/>
+      <c r="AD25" s="76"/>
+      <c r="AE25" s="76"/>
+      <c r="AF25" s="76"/>
+      <c r="AG25" s="76"/>
+      <c r="AH25" s="76"/>
+      <c r="AI25" s="76"/>
+      <c r="AJ25" s="76"/>
+      <c r="AK25" s="76"/>
+      <c r="AL25" s="76"/>
+      <c r="AM25" s="76"/>
+      <c r="AN25" s="76"/>
+      <c r="AO25" s="76"/>
+      <c r="AP25" s="76"/>
+      <c r="AQ25" s="76"/>
+      <c r="AR25" s="76"/>
+      <c r="AS25" s="76"/>
+      <c r="AT25" s="76"/>
+      <c r="AU25" s="76"/>
+      <c r="AV25" s="76"/>
+      <c r="AW25" s="76"/>
+      <c r="AX25" s="76"/>
+      <c r="AY25" s="76"/>
     </row>
     <row r="26" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A26" s="114"/>
-      <c r="B26" s="115"/>
-      <c r="C26" s="116"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="123"/>
-      <c r="O26" s="123"/>
-      <c r="P26" s="123"/>
-      <c r="Q26" s="123"/>
-      <c r="R26" s="123"/>
-      <c r="S26" s="124"/>
-      <c r="T26" s="122"/>
-      <c r="U26" s="123"/>
-      <c r="V26" s="123"/>
-      <c r="W26" s="124"/>
-      <c r="X26" s="125"/>
-      <c r="Y26" s="125"/>
-      <c r="Z26" s="125"/>
-      <c r="AA26" s="125"/>
-      <c r="AB26" s="125"/>
-      <c r="AC26" s="125"/>
-      <c r="AD26" s="125"/>
-      <c r="AE26" s="125"/>
-      <c r="AF26" s="125"/>
-      <c r="AG26" s="125"/>
-      <c r="AH26" s="125"/>
-      <c r="AI26" s="125"/>
-      <c r="AJ26" s="125"/>
-      <c r="AK26" s="125"/>
-      <c r="AL26" s="125"/>
-      <c r="AM26" s="125"/>
-      <c r="AN26" s="125"/>
-      <c r="AO26" s="125"/>
-      <c r="AP26" s="125"/>
-      <c r="AQ26" s="125"/>
-      <c r="AR26" s="125"/>
-      <c r="AS26" s="125"/>
-      <c r="AT26" s="125"/>
-      <c r="AU26" s="125"/>
-      <c r="AV26" s="125"/>
-      <c r="AW26" s="125"/>
-      <c r="AX26" s="125"/>
-      <c r="AY26" s="125"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="66"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="71"/>
+      <c r="K26" s="71"/>
+      <c r="L26" s="72"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="74"/>
+      <c r="P26" s="74"/>
+      <c r="Q26" s="74"/>
+      <c r="R26" s="74"/>
+      <c r="S26" s="75"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="74"/>
+      <c r="V26" s="74"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="76"/>
+      <c r="Y26" s="76"/>
+      <c r="Z26" s="76"/>
+      <c r="AA26" s="76"/>
+      <c r="AB26" s="76"/>
+      <c r="AC26" s="76"/>
+      <c r="AD26" s="76"/>
+      <c r="AE26" s="76"/>
+      <c r="AF26" s="76"/>
+      <c r="AG26" s="76"/>
+      <c r="AH26" s="76"/>
+      <c r="AI26" s="76"/>
+      <c r="AJ26" s="76"/>
+      <c r="AK26" s="76"/>
+      <c r="AL26" s="76"/>
+      <c r="AM26" s="76"/>
+      <c r="AN26" s="76"/>
+      <c r="AO26" s="76"/>
+      <c r="AP26" s="76"/>
+      <c r="AQ26" s="76"/>
+      <c r="AR26" s="76"/>
+      <c r="AS26" s="76"/>
+      <c r="AT26" s="76"/>
+      <c r="AU26" s="76"/>
+      <c r="AV26" s="76"/>
+      <c r="AW26" s="76"/>
+      <c r="AX26" s="76"/>
+      <c r="AY26" s="76"/>
     </row>
     <row r="27" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A27" s="114"/>
-      <c r="B27" s="115"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="123"/>
-      <c r="O27" s="123"/>
-      <c r="P27" s="123"/>
-      <c r="Q27" s="123"/>
-      <c r="R27" s="123"/>
-      <c r="S27" s="124"/>
-      <c r="T27" s="122"/>
-      <c r="U27" s="123"/>
-      <c r="V27" s="123"/>
-      <c r="W27" s="124"/>
-      <c r="X27" s="125"/>
-      <c r="Y27" s="125"/>
-      <c r="Z27" s="125"/>
-      <c r="AA27" s="125"/>
-      <c r="AB27" s="125"/>
-      <c r="AC27" s="125"/>
-      <c r="AD27" s="125"/>
-      <c r="AE27" s="125"/>
-      <c r="AF27" s="125"/>
-      <c r="AG27" s="125"/>
-      <c r="AH27" s="125"/>
-      <c r="AI27" s="125"/>
-      <c r="AJ27" s="125"/>
-      <c r="AK27" s="125"/>
-      <c r="AL27" s="125"/>
-      <c r="AM27" s="125"/>
-      <c r="AN27" s="125"/>
-      <c r="AO27" s="125"/>
-      <c r="AP27" s="125"/>
-      <c r="AQ27" s="125"/>
-      <c r="AR27" s="125"/>
-      <c r="AS27" s="125"/>
-      <c r="AT27" s="125"/>
-      <c r="AU27" s="125"/>
-      <c r="AV27" s="125"/>
-      <c r="AW27" s="125"/>
-      <c r="AX27" s="125"/>
-      <c r="AY27" s="125"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="71"/>
+      <c r="K27" s="71"/>
+      <c r="L27" s="72"/>
+      <c r="M27" s="73"/>
+      <c r="N27" s="74"/>
+      <c r="O27" s="74"/>
+      <c r="P27" s="74"/>
+      <c r="Q27" s="74"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="75"/>
+      <c r="T27" s="73"/>
+      <c r="U27" s="74"/>
+      <c r="V27" s="74"/>
+      <c r="W27" s="75"/>
+      <c r="X27" s="76"/>
+      <c r="Y27" s="76"/>
+      <c r="Z27" s="76"/>
+      <c r="AA27" s="76"/>
+      <c r="AB27" s="76"/>
+      <c r="AC27" s="76"/>
+      <c r="AD27" s="76"/>
+      <c r="AE27" s="76"/>
+      <c r="AF27" s="76"/>
+      <c r="AG27" s="76"/>
+      <c r="AH27" s="76"/>
+      <c r="AI27" s="76"/>
+      <c r="AJ27" s="76"/>
+      <c r="AK27" s="76"/>
+      <c r="AL27" s="76"/>
+      <c r="AM27" s="76"/>
+      <c r="AN27" s="76"/>
+      <c r="AO27" s="76"/>
+      <c r="AP27" s="76"/>
+      <c r="AQ27" s="76"/>
+      <c r="AR27" s="76"/>
+      <c r="AS27" s="76"/>
+      <c r="AT27" s="76"/>
+      <c r="AU27" s="76"/>
+      <c r="AV27" s="76"/>
+      <c r="AW27" s="76"/>
+      <c r="AX27" s="76"/>
+      <c r="AY27" s="76"/>
     </row>
     <row r="28" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A28" s="114"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="122"/>
-      <c r="N28" s="123"/>
-      <c r="O28" s="123"/>
-      <c r="P28" s="123"/>
-      <c r="Q28" s="123"/>
-      <c r="R28" s="123"/>
-      <c r="S28" s="124"/>
-      <c r="T28" s="122"/>
-      <c r="U28" s="123"/>
-      <c r="V28" s="123"/>
-      <c r="W28" s="124"/>
-      <c r="X28" s="125"/>
-      <c r="Y28" s="125"/>
-      <c r="Z28" s="125"/>
-      <c r="AA28" s="125"/>
-      <c r="AB28" s="125"/>
-      <c r="AC28" s="125"/>
-      <c r="AD28" s="125"/>
-      <c r="AE28" s="125"/>
-      <c r="AF28" s="125"/>
-      <c r="AG28" s="125"/>
-      <c r="AH28" s="125"/>
-      <c r="AI28" s="125"/>
-      <c r="AJ28" s="125"/>
-      <c r="AK28" s="125"/>
-      <c r="AL28" s="125"/>
-      <c r="AM28" s="125"/>
-      <c r="AN28" s="125"/>
-      <c r="AO28" s="125"/>
-      <c r="AP28" s="125"/>
-      <c r="AQ28" s="125"/>
-      <c r="AR28" s="125"/>
-      <c r="AS28" s="125"/>
-      <c r="AT28" s="125"/>
-      <c r="AU28" s="125"/>
-      <c r="AV28" s="125"/>
-      <c r="AW28" s="125"/>
-      <c r="AX28" s="125"/>
-      <c r="AY28" s="125"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="71"/>
+      <c r="K28" s="71"/>
+      <c r="L28" s="72"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="74"/>
+      <c r="R28" s="74"/>
+      <c r="S28" s="75"/>
+      <c r="T28" s="73"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="75"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="76"/>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="76"/>
+      <c r="AJ28" s="76"/>
+      <c r="AK28" s="76"/>
+      <c r="AL28" s="76"/>
+      <c r="AM28" s="76"/>
+      <c r="AN28" s="76"/>
+      <c r="AO28" s="76"/>
+      <c r="AP28" s="76"/>
+      <c r="AQ28" s="76"/>
+      <c r="AR28" s="76"/>
+      <c r="AS28" s="76"/>
+      <c r="AT28" s="76"/>
+      <c r="AU28" s="76"/>
+      <c r="AV28" s="76"/>
+      <c r="AW28" s="76"/>
+      <c r="AX28" s="76"/>
+      <c r="AY28" s="76"/>
     </row>
     <row r="29" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A29" s="114"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="116"/>
-      <c r="D29" s="117"/>
-      <c r="E29" s="117"/>
-      <c r="F29" s="117"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="123"/>
-      <c r="O29" s="123"/>
-      <c r="P29" s="123"/>
-      <c r="Q29" s="123"/>
-      <c r="R29" s="123"/>
-      <c r="S29" s="124"/>
-      <c r="T29" s="122"/>
-      <c r="U29" s="123"/>
-      <c r="V29" s="123"/>
-      <c r="W29" s="124"/>
-      <c r="X29" s="125"/>
-      <c r="Y29" s="125"/>
-      <c r="Z29" s="125"/>
-      <c r="AA29" s="125"/>
-      <c r="AB29" s="125"/>
-      <c r="AC29" s="125"/>
-      <c r="AD29" s="125"/>
-      <c r="AE29" s="125"/>
-      <c r="AF29" s="125"/>
-      <c r="AG29" s="125"/>
-      <c r="AH29" s="125"/>
-      <c r="AI29" s="125"/>
-      <c r="AJ29" s="125"/>
-      <c r="AK29" s="125"/>
-      <c r="AL29" s="125"/>
-      <c r="AM29" s="125"/>
-      <c r="AN29" s="125"/>
-      <c r="AO29" s="125"/>
-      <c r="AP29" s="125"/>
-      <c r="AQ29" s="125"/>
-      <c r="AR29" s="125"/>
-      <c r="AS29" s="125"/>
-      <c r="AT29" s="125"/>
-      <c r="AU29" s="125"/>
-      <c r="AV29" s="125"/>
-      <c r="AW29" s="125"/>
-      <c r="AX29" s="125"/>
-      <c r="AY29" s="125"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="71"/>
+      <c r="K29" s="71"/>
+      <c r="L29" s="72"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="74"/>
+      <c r="R29" s="74"/>
+      <c r="S29" s="75"/>
+      <c r="T29" s="73"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="75"/>
+      <c r="X29" s="76"/>
+      <c r="Y29" s="76"/>
+      <c r="Z29" s="76"/>
+      <c r="AA29" s="76"/>
+      <c r="AB29" s="76"/>
+      <c r="AC29" s="76"/>
+      <c r="AD29" s="76"/>
+      <c r="AE29" s="76"/>
+      <c r="AF29" s="76"/>
+      <c r="AG29" s="76"/>
+      <c r="AH29" s="76"/>
+      <c r="AI29" s="76"/>
+      <c r="AJ29" s="76"/>
+      <c r="AK29" s="76"/>
+      <c r="AL29" s="76"/>
+      <c r="AM29" s="76"/>
+      <c r="AN29" s="76"/>
+      <c r="AO29" s="76"/>
+      <c r="AP29" s="76"/>
+      <c r="AQ29" s="76"/>
+      <c r="AR29" s="76"/>
+      <c r="AS29" s="76"/>
+      <c r="AT29" s="76"/>
+      <c r="AU29" s="76"/>
+      <c r="AV29" s="76"/>
+      <c r="AW29" s="76"/>
+      <c r="AX29" s="76"/>
+      <c r="AY29" s="76"/>
     </row>
     <row r="30" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A30" s="114"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="116"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="123"/>
-      <c r="O30" s="123"/>
-      <c r="P30" s="123"/>
-      <c r="Q30" s="123"/>
-      <c r="R30" s="123"/>
-      <c r="S30" s="124"/>
-      <c r="T30" s="122"/>
-      <c r="U30" s="123"/>
-      <c r="V30" s="123"/>
-      <c r="W30" s="124"/>
-      <c r="X30" s="125"/>
-      <c r="Y30" s="125"/>
-      <c r="Z30" s="125"/>
-      <c r="AA30" s="125"/>
-      <c r="AB30" s="125"/>
-      <c r="AC30" s="125"/>
-      <c r="AD30" s="125"/>
-      <c r="AE30" s="125"/>
-      <c r="AF30" s="125"/>
-      <c r="AG30" s="125"/>
-      <c r="AH30" s="125"/>
-      <c r="AI30" s="125"/>
-      <c r="AJ30" s="125"/>
-      <c r="AK30" s="125"/>
-      <c r="AL30" s="125"/>
-      <c r="AM30" s="125"/>
-      <c r="AN30" s="125"/>
-      <c r="AO30" s="125"/>
-      <c r="AP30" s="125"/>
-      <c r="AQ30" s="125"/>
-      <c r="AR30" s="125"/>
-      <c r="AS30" s="125"/>
-      <c r="AT30" s="125"/>
-      <c r="AU30" s="125"/>
-      <c r="AV30" s="125"/>
-      <c r="AW30" s="125"/>
-      <c r="AX30" s="125"/>
-      <c r="AY30" s="125"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="66"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="68"/>
+      <c r="G30" s="68"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="74"/>
+      <c r="P30" s="74"/>
+      <c r="Q30" s="74"/>
+      <c r="R30" s="74"/>
+      <c r="S30" s="75"/>
+      <c r="T30" s="73"/>
+      <c r="U30" s="74"/>
+      <c r="V30" s="74"/>
+      <c r="W30" s="75"/>
+      <c r="X30" s="76"/>
+      <c r="Y30" s="76"/>
+      <c r="Z30" s="76"/>
+      <c r="AA30" s="76"/>
+      <c r="AB30" s="76"/>
+      <c r="AC30" s="76"/>
+      <c r="AD30" s="76"/>
+      <c r="AE30" s="76"/>
+      <c r="AF30" s="76"/>
+      <c r="AG30" s="76"/>
+      <c r="AH30" s="76"/>
+      <c r="AI30" s="76"/>
+      <c r="AJ30" s="76"/>
+      <c r="AK30" s="76"/>
+      <c r="AL30" s="76"/>
+      <c r="AM30" s="76"/>
+      <c r="AN30" s="76"/>
+      <c r="AO30" s="76"/>
+      <c r="AP30" s="76"/>
+      <c r="AQ30" s="76"/>
+      <c r="AR30" s="76"/>
+      <c r="AS30" s="76"/>
+      <c r="AT30" s="76"/>
+      <c r="AU30" s="76"/>
+      <c r="AV30" s="76"/>
+      <c r="AW30" s="76"/>
+      <c r="AX30" s="76"/>
+      <c r="AY30" s="76"/>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A31" s="114"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="117"/>
-      <c r="E31" s="117"/>
-      <c r="F31" s="117"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="120"/>
-      <c r="K31" s="120"/>
-      <c r="L31" s="121"/>
-      <c r="M31" s="122"/>
-      <c r="N31" s="123"/>
-      <c r="O31" s="123"/>
-      <c r="P31" s="123"/>
-      <c r="Q31" s="123"/>
-      <c r="R31" s="123"/>
-      <c r="S31" s="124"/>
-      <c r="T31" s="122"/>
-      <c r="U31" s="123"/>
-      <c r="V31" s="123"/>
-      <c r="W31" s="124"/>
-      <c r="X31" s="125"/>
-      <c r="Y31" s="125"/>
-      <c r="Z31" s="125"/>
-      <c r="AA31" s="125"/>
-      <c r="AB31" s="125"/>
-      <c r="AC31" s="125"/>
-      <c r="AD31" s="125"/>
-      <c r="AE31" s="125"/>
-      <c r="AF31" s="125"/>
-      <c r="AG31" s="125"/>
-      <c r="AH31" s="125"/>
-      <c r="AI31" s="125"/>
-      <c r="AJ31" s="125"/>
-      <c r="AK31" s="125"/>
-      <c r="AL31" s="125"/>
-      <c r="AM31" s="125"/>
-      <c r="AN31" s="125"/>
-      <c r="AO31" s="125"/>
-      <c r="AP31" s="125"/>
-      <c r="AQ31" s="125"/>
-      <c r="AR31" s="125"/>
-      <c r="AS31" s="125"/>
-      <c r="AT31" s="125"/>
-      <c r="AU31" s="125"/>
-      <c r="AV31" s="125"/>
-      <c r="AW31" s="125"/>
-      <c r="AX31" s="125"/>
-      <c r="AY31" s="125"/>
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="68"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="71"/>
+      <c r="K31" s="71"/>
+      <c r="L31" s="72"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="74"/>
+      <c r="O31" s="74"/>
+      <c r="P31" s="74"/>
+      <c r="Q31" s="74"/>
+      <c r="R31" s="74"/>
+      <c r="S31" s="75"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="74"/>
+      <c r="V31" s="74"/>
+      <c r="W31" s="75"/>
+      <c r="X31" s="76"/>
+      <c r="Y31" s="76"/>
+      <c r="Z31" s="76"/>
+      <c r="AA31" s="76"/>
+      <c r="AB31" s="76"/>
+      <c r="AC31" s="76"/>
+      <c r="AD31" s="76"/>
+      <c r="AE31" s="76"/>
+      <c r="AF31" s="76"/>
+      <c r="AG31" s="76"/>
+      <c r="AH31" s="76"/>
+      <c r="AI31" s="76"/>
+      <c r="AJ31" s="76"/>
+      <c r="AK31" s="76"/>
+      <c r="AL31" s="76"/>
+      <c r="AM31" s="76"/>
+      <c r="AN31" s="76"/>
+      <c r="AO31" s="76"/>
+      <c r="AP31" s="76"/>
+      <c r="AQ31" s="76"/>
+      <c r="AR31" s="76"/>
+      <c r="AS31" s="76"/>
+      <c r="AT31" s="76"/>
+      <c r="AU31" s="76"/>
+      <c r="AV31" s="76"/>
+      <c r="AW31" s="76"/>
+      <c r="AX31" s="76"/>
+      <c r="AY31" s="76"/>
     </row>
     <row r="32" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A32" s="114"/>
-      <c r="B32" s="115"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="117"/>
-      <c r="E32" s="117"/>
-      <c r="F32" s="117"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="123"/>
-      <c r="O32" s="123"/>
-      <c r="P32" s="123"/>
-      <c r="Q32" s="123"/>
-      <c r="R32" s="123"/>
-      <c r="S32" s="124"/>
-      <c r="T32" s="122"/>
-      <c r="U32" s="123"/>
-      <c r="V32" s="123"/>
-      <c r="W32" s="124"/>
-      <c r="X32" s="125"/>
-      <c r="Y32" s="125"/>
-      <c r="Z32" s="125"/>
-      <c r="AA32" s="125"/>
-      <c r="AB32" s="125"/>
-      <c r="AC32" s="125"/>
-      <c r="AD32" s="125"/>
-      <c r="AE32" s="125"/>
-      <c r="AF32" s="125"/>
-      <c r="AG32" s="125"/>
-      <c r="AH32" s="125"/>
-      <c r="AI32" s="125"/>
-      <c r="AJ32" s="125"/>
-      <c r="AK32" s="125"/>
-      <c r="AL32" s="125"/>
-      <c r="AM32" s="125"/>
-      <c r="AN32" s="125"/>
-      <c r="AO32" s="125"/>
-      <c r="AP32" s="125"/>
-      <c r="AQ32" s="125"/>
-      <c r="AR32" s="125"/>
-      <c r="AS32" s="125"/>
-      <c r="AT32" s="125"/>
-      <c r="AU32" s="125"/>
-      <c r="AV32" s="125"/>
-      <c r="AW32" s="125"/>
-      <c r="AX32" s="125"/>
-      <c r="AY32" s="125"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="68"/>
+      <c r="G32" s="68"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="71"/>
+      <c r="L32" s="72"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="74"/>
+      <c r="P32" s="74"/>
+      <c r="Q32" s="74"/>
+      <c r="R32" s="74"/>
+      <c r="S32" s="75"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="74"/>
+      <c r="V32" s="74"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="76"/>
+      <c r="Y32" s="76"/>
+      <c r="Z32" s="76"/>
+      <c r="AA32" s="76"/>
+      <c r="AB32" s="76"/>
+      <c r="AC32" s="76"/>
+      <c r="AD32" s="76"/>
+      <c r="AE32" s="76"/>
+      <c r="AF32" s="76"/>
+      <c r="AG32" s="76"/>
+      <c r="AH32" s="76"/>
+      <c r="AI32" s="76"/>
+      <c r="AJ32" s="76"/>
+      <c r="AK32" s="76"/>
+      <c r="AL32" s="76"/>
+      <c r="AM32" s="76"/>
+      <c r="AN32" s="76"/>
+      <c r="AO32" s="76"/>
+      <c r="AP32" s="76"/>
+      <c r="AQ32" s="76"/>
+      <c r="AR32" s="76"/>
+      <c r="AS32" s="76"/>
+      <c r="AT32" s="76"/>
+      <c r="AU32" s="76"/>
+      <c r="AV32" s="76"/>
+      <c r="AW32" s="76"/>
+      <c r="AX32" s="76"/>
+      <c r="AY32" s="76"/>
     </row>
     <row r="33" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A33" s="114"/>
-      <c r="B33" s="115"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="117"/>
-      <c r="E33" s="117"/>
-      <c r="F33" s="117"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="123"/>
-      <c r="O33" s="123"/>
-      <c r="P33" s="123"/>
-      <c r="Q33" s="123"/>
-      <c r="R33" s="123"/>
-      <c r="S33" s="124"/>
-      <c r="T33" s="122"/>
-      <c r="U33" s="123"/>
-      <c r="V33" s="123"/>
-      <c r="W33" s="124"/>
-      <c r="X33" s="125"/>
-      <c r="Y33" s="125"/>
-      <c r="Z33" s="125"/>
-      <c r="AA33" s="125"/>
-      <c r="AB33" s="125"/>
-      <c r="AC33" s="125"/>
-      <c r="AD33" s="125"/>
-      <c r="AE33" s="125"/>
-      <c r="AF33" s="125"/>
-      <c r="AG33" s="125"/>
-      <c r="AH33" s="125"/>
-      <c r="AI33" s="125"/>
-      <c r="AJ33" s="125"/>
-      <c r="AK33" s="125"/>
-      <c r="AL33" s="125"/>
-      <c r="AM33" s="125"/>
-      <c r="AN33" s="125"/>
-      <c r="AO33" s="125"/>
-      <c r="AP33" s="125"/>
-      <c r="AQ33" s="125"/>
-      <c r="AR33" s="125"/>
-      <c r="AS33" s="125"/>
-      <c r="AT33" s="125"/>
-      <c r="AU33" s="125"/>
-      <c r="AV33" s="125"/>
-      <c r="AW33" s="125"/>
-      <c r="AX33" s="125"/>
-      <c r="AY33" s="125"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="71"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="72"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="75"/>
+      <c r="T33" s="73"/>
+      <c r="U33" s="74"/>
+      <c r="V33" s="74"/>
+      <c r="W33" s="75"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="76"/>
+      <c r="Z33" s="76"/>
+      <c r="AA33" s="76"/>
+      <c r="AB33" s="76"/>
+      <c r="AC33" s="76"/>
+      <c r="AD33" s="76"/>
+      <c r="AE33" s="76"/>
+      <c r="AF33" s="76"/>
+      <c r="AG33" s="76"/>
+      <c r="AH33" s="76"/>
+      <c r="AI33" s="76"/>
+      <c r="AJ33" s="76"/>
+      <c r="AK33" s="76"/>
+      <c r="AL33" s="76"/>
+      <c r="AM33" s="76"/>
+      <c r="AN33" s="76"/>
+      <c r="AO33" s="76"/>
+      <c r="AP33" s="76"/>
+      <c r="AQ33" s="76"/>
+      <c r="AR33" s="76"/>
+      <c r="AS33" s="76"/>
+      <c r="AT33" s="76"/>
+      <c r="AU33" s="76"/>
+      <c r="AV33" s="76"/>
+      <c r="AW33" s="76"/>
+      <c r="AX33" s="76"/>
+      <c r="AY33" s="76"/>
     </row>
     <row r="34" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A34" s="114"/>
-      <c r="B34" s="115"/>
-      <c r="C34" s="116"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="118"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="123"/>
-      <c r="O34" s="123"/>
-      <c r="P34" s="123"/>
-      <c r="Q34" s="123"/>
-      <c r="R34" s="123"/>
-      <c r="S34" s="124"/>
-      <c r="T34" s="122"/>
-      <c r="U34" s="123"/>
-      <c r="V34" s="123"/>
-      <c r="W34" s="124"/>
-      <c r="X34" s="125"/>
-      <c r="Y34" s="125"/>
-      <c r="Z34" s="125"/>
-      <c r="AA34" s="125"/>
-      <c r="AB34" s="125"/>
-      <c r="AC34" s="125"/>
-      <c r="AD34" s="125"/>
-      <c r="AE34" s="125"/>
-      <c r="AF34" s="125"/>
-      <c r="AG34" s="125"/>
-      <c r="AH34" s="125"/>
-      <c r="AI34" s="125"/>
-      <c r="AJ34" s="125"/>
-      <c r="AK34" s="125"/>
-      <c r="AL34" s="125"/>
-      <c r="AM34" s="125"/>
-      <c r="AN34" s="125"/>
-      <c r="AO34" s="125"/>
-      <c r="AP34" s="125"/>
-      <c r="AQ34" s="125"/>
-      <c r="AR34" s="125"/>
-      <c r="AS34" s="125"/>
-      <c r="AT34" s="125"/>
-      <c r="AU34" s="125"/>
-      <c r="AV34" s="125"/>
-      <c r="AW34" s="125"/>
-      <c r="AX34" s="125"/>
-      <c r="AY34" s="125"/>
+      <c r="A34" s="65"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="71"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="72"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="74"/>
+      <c r="R34" s="74"/>
+      <c r="S34" s="75"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="76"/>
+      <c r="Y34" s="76"/>
+      <c r="Z34" s="76"/>
+      <c r="AA34" s="76"/>
+      <c r="AB34" s="76"/>
+      <c r="AC34" s="76"/>
+      <c r="AD34" s="76"/>
+      <c r="AE34" s="76"/>
+      <c r="AF34" s="76"/>
+      <c r="AG34" s="76"/>
+      <c r="AH34" s="76"/>
+      <c r="AI34" s="76"/>
+      <c r="AJ34" s="76"/>
+      <c r="AK34" s="76"/>
+      <c r="AL34" s="76"/>
+      <c r="AM34" s="76"/>
+      <c r="AN34" s="76"/>
+      <c r="AO34" s="76"/>
+      <c r="AP34" s="76"/>
+      <c r="AQ34" s="76"/>
+      <c r="AR34" s="76"/>
+      <c r="AS34" s="76"/>
+      <c r="AT34" s="76"/>
+      <c r="AU34" s="76"/>
+      <c r="AV34" s="76"/>
+      <c r="AW34" s="76"/>
+      <c r="AX34" s="76"/>
+      <c r="AY34" s="76"/>
     </row>
     <row r="35" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A35" s="114"/>
-      <c r="B35" s="115"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="117"/>
-      <c r="E35" s="117"/>
-      <c r="F35" s="117"/>
-      <c r="G35" s="117"/>
-      <c r="H35" s="118"/>
-      <c r="I35" s="119"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="122"/>
-      <c r="N35" s="123"/>
-      <c r="O35" s="123"/>
-      <c r="P35" s="123"/>
-      <c r="Q35" s="123"/>
-      <c r="R35" s="123"/>
-      <c r="S35" s="124"/>
-      <c r="T35" s="122"/>
-      <c r="U35" s="123"/>
-      <c r="V35" s="123"/>
-      <c r="W35" s="124"/>
-      <c r="X35" s="125"/>
-      <c r="Y35" s="125"/>
-      <c r="Z35" s="125"/>
-      <c r="AA35" s="125"/>
-      <c r="AB35" s="125"/>
-      <c r="AC35" s="125"/>
-      <c r="AD35" s="125"/>
-      <c r="AE35" s="125"/>
-      <c r="AF35" s="125"/>
-      <c r="AG35" s="125"/>
-      <c r="AH35" s="125"/>
-      <c r="AI35" s="125"/>
-      <c r="AJ35" s="125"/>
-      <c r="AK35" s="125"/>
-      <c r="AL35" s="125"/>
-      <c r="AM35" s="125"/>
-      <c r="AN35" s="125"/>
-      <c r="AO35" s="125"/>
-      <c r="AP35" s="125"/>
-      <c r="AQ35" s="125"/>
-      <c r="AR35" s="125"/>
-      <c r="AS35" s="125"/>
-      <c r="AT35" s="125"/>
-      <c r="AU35" s="125"/>
-      <c r="AV35" s="125"/>
-      <c r="AW35" s="125"/>
-      <c r="AX35" s="125"/>
-      <c r="AY35" s="125"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="67"/>
+      <c r="D35" s="68"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="68"/>
+      <c r="G35" s="68"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="71"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="72"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="74"/>
+      <c r="O35" s="74"/>
+      <c r="P35" s="74"/>
+      <c r="Q35" s="74"/>
+      <c r="R35" s="74"/>
+      <c r="S35" s="75"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="74"/>
+      <c r="V35" s="74"/>
+      <c r="W35" s="75"/>
+      <c r="X35" s="76"/>
+      <c r="Y35" s="76"/>
+      <c r="Z35" s="76"/>
+      <c r="AA35" s="76"/>
+      <c r="AB35" s="76"/>
+      <c r="AC35" s="76"/>
+      <c r="AD35" s="76"/>
+      <c r="AE35" s="76"/>
+      <c r="AF35" s="76"/>
+      <c r="AG35" s="76"/>
+      <c r="AH35" s="76"/>
+      <c r="AI35" s="76"/>
+      <c r="AJ35" s="76"/>
+      <c r="AK35" s="76"/>
+      <c r="AL35" s="76"/>
+      <c r="AM35" s="76"/>
+      <c r="AN35" s="76"/>
+      <c r="AO35" s="76"/>
+      <c r="AP35" s="76"/>
+      <c r="AQ35" s="76"/>
+      <c r="AR35" s="76"/>
+      <c r="AS35" s="76"/>
+      <c r="AT35" s="76"/>
+      <c r="AU35" s="76"/>
+      <c r="AV35" s="76"/>
+      <c r="AW35" s="76"/>
+      <c r="AX35" s="76"/>
+      <c r="AY35" s="76"/>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A36" s="114"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="116"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="118"/>
-      <c r="I36" s="119"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="122"/>
-      <c r="N36" s="123"/>
-      <c r="O36" s="123"/>
-      <c r="P36" s="123"/>
-      <c r="Q36" s="123"/>
-      <c r="R36" s="123"/>
-      <c r="S36" s="124"/>
-      <c r="T36" s="122"/>
-      <c r="U36" s="123"/>
-      <c r="V36" s="123"/>
-      <c r="W36" s="124"/>
-      <c r="X36" s="125"/>
-      <c r="Y36" s="125"/>
-      <c r="Z36" s="125"/>
-      <c r="AA36" s="125"/>
-      <c r="AB36" s="125"/>
-      <c r="AC36" s="125"/>
-      <c r="AD36" s="125"/>
-      <c r="AE36" s="125"/>
-      <c r="AF36" s="125"/>
-      <c r="AG36" s="125"/>
-      <c r="AH36" s="125"/>
-      <c r="AI36" s="125"/>
-      <c r="AJ36" s="125"/>
-      <c r="AK36" s="125"/>
-      <c r="AL36" s="125"/>
-      <c r="AM36" s="125"/>
-      <c r="AN36" s="125"/>
-      <c r="AO36" s="125"/>
-      <c r="AP36" s="125"/>
-      <c r="AQ36" s="125"/>
-      <c r="AR36" s="125"/>
-      <c r="AS36" s="125"/>
-      <c r="AT36" s="125"/>
-      <c r="AU36" s="125"/>
-      <c r="AV36" s="125"/>
-      <c r="AW36" s="125"/>
-      <c r="AX36" s="125"/>
-      <c r="AY36" s="125"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="67"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="68"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="74"/>
+      <c r="P36" s="74"/>
+      <c r="Q36" s="74"/>
+      <c r="R36" s="74"/>
+      <c r="S36" s="75"/>
+      <c r="T36" s="73"/>
+      <c r="U36" s="74"/>
+      <c r="V36" s="74"/>
+      <c r="W36" s="75"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76"/>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="76"/>
+      <c r="AG36" s="76"/>
+      <c r="AH36" s="76"/>
+      <c r="AI36" s="76"/>
+      <c r="AJ36" s="76"/>
+      <c r="AK36" s="76"/>
+      <c r="AL36" s="76"/>
+      <c r="AM36" s="76"/>
+      <c r="AN36" s="76"/>
+      <c r="AO36" s="76"/>
+      <c r="AP36" s="76"/>
+      <c r="AQ36" s="76"/>
+      <c r="AR36" s="76"/>
+      <c r="AS36" s="76"/>
+      <c r="AT36" s="76"/>
+      <c r="AU36" s="76"/>
+      <c r="AV36" s="76"/>
+      <c r="AW36" s="76"/>
+      <c r="AX36" s="76"/>
+      <c r="AY36" s="76"/>
     </row>
     <row r="37" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A37" s="114"/>
-      <c r="B37" s="115"/>
-      <c r="C37" s="116"/>
-      <c r="D37" s="117"/>
-      <c r="E37" s="117"/>
-      <c r="F37" s="117"/>
-      <c r="G37" s="117"/>
-      <c r="H37" s="118"/>
-      <c r="I37" s="119"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="120"/>
-      <c r="L37" s="121"/>
-      <c r="M37" s="122"/>
-      <c r="N37" s="123"/>
-      <c r="O37" s="123"/>
-      <c r="P37" s="123"/>
-      <c r="Q37" s="123"/>
-      <c r="R37" s="123"/>
-      <c r="S37" s="124"/>
-      <c r="T37" s="122"/>
-      <c r="U37" s="123"/>
-      <c r="V37" s="123"/>
-      <c r="W37" s="124"/>
-      <c r="X37" s="125"/>
-      <c r="Y37" s="125"/>
-      <c r="Z37" s="125"/>
-      <c r="AA37" s="125"/>
-      <c r="AB37" s="125"/>
-      <c r="AC37" s="125"/>
-      <c r="AD37" s="125"/>
-      <c r="AE37" s="125"/>
-      <c r="AF37" s="125"/>
-      <c r="AG37" s="125"/>
-      <c r="AH37" s="125"/>
-      <c r="AI37" s="125"/>
-      <c r="AJ37" s="125"/>
-      <c r="AK37" s="125"/>
-      <c r="AL37" s="125"/>
-      <c r="AM37" s="125"/>
-      <c r="AN37" s="125"/>
-      <c r="AO37" s="125"/>
-      <c r="AP37" s="125"/>
-      <c r="AQ37" s="125"/>
-      <c r="AR37" s="125"/>
-      <c r="AS37" s="125"/>
-      <c r="AT37" s="125"/>
-      <c r="AU37" s="125"/>
-      <c r="AV37" s="125"/>
-      <c r="AW37" s="125"/>
-      <c r="AX37" s="125"/>
-      <c r="AY37" s="125"/>
+      <c r="A37" s="65"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="68"/>
+      <c r="G37" s="68"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="72"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="74"/>
+      <c r="R37" s="74"/>
+      <c r="S37" s="75"/>
+      <c r="T37" s="73"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="75"/>
+      <c r="X37" s="76"/>
+      <c r="Y37" s="76"/>
+      <c r="Z37" s="76"/>
+      <c r="AA37" s="76"/>
+      <c r="AB37" s="76"/>
+      <c r="AC37" s="76"/>
+      <c r="AD37" s="76"/>
+      <c r="AE37" s="76"/>
+      <c r="AF37" s="76"/>
+      <c r="AG37" s="76"/>
+      <c r="AH37" s="76"/>
+      <c r="AI37" s="76"/>
+      <c r="AJ37" s="76"/>
+      <c r="AK37" s="76"/>
+      <c r="AL37" s="76"/>
+      <c r="AM37" s="76"/>
+      <c r="AN37" s="76"/>
+      <c r="AO37" s="76"/>
+      <c r="AP37" s="76"/>
+      <c r="AQ37" s="76"/>
+      <c r="AR37" s="76"/>
+      <c r="AS37" s="76"/>
+      <c r="AT37" s="76"/>
+      <c r="AU37" s="76"/>
+      <c r="AV37" s="76"/>
+      <c r="AW37" s="76"/>
+      <c r="AX37" s="76"/>
+      <c r="AY37" s="76"/>
     </row>
     <row r="38" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A38" s="114"/>
-      <c r="B38" s="115"/>
-      <c r="C38" s="116"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="118"/>
-      <c r="I38" s="119"/>
-      <c r="J38" s="120"/>
-      <c r="K38" s="120"/>
-      <c r="L38" s="121"/>
-      <c r="M38" s="122"/>
-      <c r="N38" s="123"/>
-      <c r="O38" s="123"/>
-      <c r="P38" s="123"/>
-      <c r="Q38" s="123"/>
-      <c r="R38" s="123"/>
-      <c r="S38" s="124"/>
-      <c r="T38" s="122"/>
-      <c r="U38" s="123"/>
-      <c r="V38" s="123"/>
-      <c r="W38" s="124"/>
-      <c r="X38" s="125"/>
-      <c r="Y38" s="125"/>
-      <c r="Z38" s="125"/>
-      <c r="AA38" s="125"/>
-      <c r="AB38" s="125"/>
-      <c r="AC38" s="125"/>
-      <c r="AD38" s="125"/>
-      <c r="AE38" s="125"/>
-      <c r="AF38" s="125"/>
-      <c r="AG38" s="125"/>
-      <c r="AH38" s="125"/>
-      <c r="AI38" s="125"/>
-      <c r="AJ38" s="125"/>
-      <c r="AK38" s="125"/>
-      <c r="AL38" s="125"/>
-      <c r="AM38" s="125"/>
-      <c r="AN38" s="125"/>
-      <c r="AO38" s="125"/>
-      <c r="AP38" s="125"/>
-      <c r="AQ38" s="125"/>
-      <c r="AR38" s="125"/>
-      <c r="AS38" s="125"/>
-      <c r="AT38" s="125"/>
-      <c r="AU38" s="125"/>
-      <c r="AV38" s="125"/>
-      <c r="AW38" s="125"/>
-      <c r="AX38" s="125"/>
-      <c r="AY38" s="125"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="68"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="71"/>
+      <c r="K38" s="71"/>
+      <c r="L38" s="72"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="74"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="74"/>
+      <c r="R38" s="74"/>
+      <c r="S38" s="75"/>
+      <c r="T38" s="73"/>
+      <c r="U38" s="74"/>
+      <c r="V38" s="74"/>
+      <c r="W38" s="75"/>
+      <c r="X38" s="76"/>
+      <c r="Y38" s="76"/>
+      <c r="Z38" s="76"/>
+      <c r="AA38" s="76"/>
+      <c r="AB38" s="76"/>
+      <c r="AC38" s="76"/>
+      <c r="AD38" s="76"/>
+      <c r="AE38" s="76"/>
+      <c r="AF38" s="76"/>
+      <c r="AG38" s="76"/>
+      <c r="AH38" s="76"/>
+      <c r="AI38" s="76"/>
+      <c r="AJ38" s="76"/>
+      <c r="AK38" s="76"/>
+      <c r="AL38" s="76"/>
+      <c r="AM38" s="76"/>
+      <c r="AN38" s="76"/>
+      <c r="AO38" s="76"/>
+      <c r="AP38" s="76"/>
+      <c r="AQ38" s="76"/>
+      <c r="AR38" s="76"/>
+      <c r="AS38" s="76"/>
+      <c r="AT38" s="76"/>
+      <c r="AU38" s="76"/>
+      <c r="AV38" s="76"/>
+      <c r="AW38" s="76"/>
+      <c r="AX38" s="76"/>
+      <c r="AY38" s="76"/>
     </row>
     <row r="39" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A39" s="114"/>
-      <c r="B39" s="115"/>
-      <c r="C39" s="116"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="118"/>
-      <c r="I39" s="119"/>
-      <c r="J39" s="120"/>
-      <c r="K39" s="120"/>
-      <c r="L39" s="121"/>
-      <c r="M39" s="122"/>
-      <c r="N39" s="123"/>
-      <c r="O39" s="123"/>
-      <c r="P39" s="123"/>
-      <c r="Q39" s="123"/>
-      <c r="R39" s="123"/>
-      <c r="S39" s="124"/>
-      <c r="T39" s="122"/>
-      <c r="U39" s="123"/>
-      <c r="V39" s="123"/>
-      <c r="W39" s="124"/>
-      <c r="X39" s="125"/>
-      <c r="Y39" s="125"/>
-      <c r="Z39" s="125"/>
-      <c r="AA39" s="125"/>
-      <c r="AB39" s="125"/>
-      <c r="AC39" s="125"/>
-      <c r="AD39" s="125"/>
-      <c r="AE39" s="125"/>
-      <c r="AF39" s="125"/>
-      <c r="AG39" s="125"/>
-      <c r="AH39" s="125"/>
-      <c r="AI39" s="125"/>
-      <c r="AJ39" s="125"/>
-      <c r="AK39" s="125"/>
-      <c r="AL39" s="125"/>
-      <c r="AM39" s="125"/>
-      <c r="AN39" s="125"/>
-      <c r="AO39" s="125"/>
-      <c r="AP39" s="125"/>
-      <c r="AQ39" s="125"/>
-      <c r="AR39" s="125"/>
-      <c r="AS39" s="125"/>
-      <c r="AT39" s="125"/>
-      <c r="AU39" s="125"/>
-      <c r="AV39" s="125"/>
-      <c r="AW39" s="125"/>
-      <c r="AX39" s="125"/>
-      <c r="AY39" s="125"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="68"/>
+      <c r="E39" s="68"/>
+      <c r="F39" s="68"/>
+      <c r="G39" s="68"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="70"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="72"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="74"/>
+      <c r="O39" s="74"/>
+      <c r="P39" s="74"/>
+      <c r="Q39" s="74"/>
+      <c r="R39" s="74"/>
+      <c r="S39" s="75"/>
+      <c r="T39" s="73"/>
+      <c r="U39" s="74"/>
+      <c r="V39" s="74"/>
+      <c r="W39" s="75"/>
+      <c r="X39" s="76"/>
+      <c r="Y39" s="76"/>
+      <c r="Z39" s="76"/>
+      <c r="AA39" s="76"/>
+      <c r="AB39" s="76"/>
+      <c r="AC39" s="76"/>
+      <c r="AD39" s="76"/>
+      <c r="AE39" s="76"/>
+      <c r="AF39" s="76"/>
+      <c r="AG39" s="76"/>
+      <c r="AH39" s="76"/>
+      <c r="AI39" s="76"/>
+      <c r="AJ39" s="76"/>
+      <c r="AK39" s="76"/>
+      <c r="AL39" s="76"/>
+      <c r="AM39" s="76"/>
+      <c r="AN39" s="76"/>
+      <c r="AO39" s="76"/>
+      <c r="AP39" s="76"/>
+      <c r="AQ39" s="76"/>
+      <c r="AR39" s="76"/>
+      <c r="AS39" s="76"/>
+      <c r="AT39" s="76"/>
+      <c r="AU39" s="76"/>
+      <c r="AV39" s="76"/>
+      <c r="AW39" s="76"/>
+      <c r="AX39" s="76"/>
+      <c r="AY39" s="76"/>
     </row>
     <row r="40" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A40" s="114"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="117"/>
-      <c r="E40" s="117"/>
-      <c r="F40" s="117"/>
-      <c r="G40" s="117"/>
-      <c r="H40" s="118"/>
-      <c r="I40" s="119"/>
-      <c r="J40" s="120"/>
-      <c r="K40" s="120"/>
-      <c r="L40" s="121"/>
-      <c r="M40" s="122"/>
-      <c r="N40" s="123"/>
-      <c r="O40" s="123"/>
-      <c r="P40" s="123"/>
-      <c r="Q40" s="123"/>
-      <c r="R40" s="123"/>
-      <c r="S40" s="124"/>
-      <c r="T40" s="122"/>
-      <c r="U40" s="123"/>
-      <c r="V40" s="123"/>
-      <c r="W40" s="124"/>
-      <c r="X40" s="125"/>
-      <c r="Y40" s="125"/>
-      <c r="Z40" s="125"/>
-      <c r="AA40" s="125"/>
-      <c r="AB40" s="125"/>
-      <c r="AC40" s="125"/>
-      <c r="AD40" s="125"/>
-      <c r="AE40" s="125"/>
-      <c r="AF40" s="125"/>
-      <c r="AG40" s="125"/>
-      <c r="AH40" s="125"/>
-      <c r="AI40" s="125"/>
-      <c r="AJ40" s="125"/>
-      <c r="AK40" s="125"/>
-      <c r="AL40" s="125"/>
-      <c r="AM40" s="125"/>
-      <c r="AN40" s="125"/>
-      <c r="AO40" s="125"/>
-      <c r="AP40" s="125"/>
-      <c r="AQ40" s="125"/>
-      <c r="AR40" s="125"/>
-      <c r="AS40" s="125"/>
-      <c r="AT40" s="125"/>
-      <c r="AU40" s="125"/>
-      <c r="AV40" s="125"/>
-      <c r="AW40" s="125"/>
-      <c r="AX40" s="125"/>
-      <c r="AY40" s="125"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="66"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="68"/>
+      <c r="E40" s="68"/>
+      <c r="F40" s="68"/>
+      <c r="G40" s="68"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="71"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="74"/>
+      <c r="P40" s="74"/>
+      <c r="Q40" s="74"/>
+      <c r="R40" s="74"/>
+      <c r="S40" s="75"/>
+      <c r="T40" s="73"/>
+      <c r="U40" s="74"/>
+      <c r="V40" s="74"/>
+      <c r="W40" s="75"/>
+      <c r="X40" s="76"/>
+      <c r="Y40" s="76"/>
+      <c r="Z40" s="76"/>
+      <c r="AA40" s="76"/>
+      <c r="AB40" s="76"/>
+      <c r="AC40" s="76"/>
+      <c r="AD40" s="76"/>
+      <c r="AE40" s="76"/>
+      <c r="AF40" s="76"/>
+      <c r="AG40" s="76"/>
+      <c r="AH40" s="76"/>
+      <c r="AI40" s="76"/>
+      <c r="AJ40" s="76"/>
+      <c r="AK40" s="76"/>
+      <c r="AL40" s="76"/>
+      <c r="AM40" s="76"/>
+      <c r="AN40" s="76"/>
+      <c r="AO40" s="76"/>
+      <c r="AP40" s="76"/>
+      <c r="AQ40" s="76"/>
+      <c r="AR40" s="76"/>
+      <c r="AS40" s="76"/>
+      <c r="AT40" s="76"/>
+      <c r="AU40" s="76"/>
+      <c r="AV40" s="76"/>
+      <c r="AW40" s="76"/>
+      <c r="AX40" s="76"/>
+      <c r="AY40" s="76"/>
     </row>
     <row r="41" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A41" s="114"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="117"/>
-      <c r="E41" s="117"/>
-      <c r="F41" s="117"/>
-      <c r="G41" s="117"/>
-      <c r="H41" s="118"/>
-      <c r="I41" s="119"/>
-      <c r="J41" s="120"/>
-      <c r="K41" s="120"/>
-      <c r="L41" s="121"/>
-      <c r="M41" s="122"/>
-      <c r="N41" s="123"/>
-      <c r="O41" s="123"/>
-      <c r="P41" s="123"/>
-      <c r="Q41" s="123"/>
-      <c r="R41" s="123"/>
-      <c r="S41" s="124"/>
-      <c r="T41" s="122"/>
-      <c r="U41" s="123"/>
-      <c r="V41" s="123"/>
-      <c r="W41" s="124"/>
-      <c r="X41" s="125"/>
-      <c r="Y41" s="125"/>
-      <c r="Z41" s="125"/>
-      <c r="AA41" s="125"/>
-      <c r="AB41" s="125"/>
-      <c r="AC41" s="125"/>
-      <c r="AD41" s="125"/>
-      <c r="AE41" s="125"/>
-      <c r="AF41" s="125"/>
-      <c r="AG41" s="125"/>
-      <c r="AH41" s="125"/>
-      <c r="AI41" s="125"/>
-      <c r="AJ41" s="125"/>
-      <c r="AK41" s="125"/>
-      <c r="AL41" s="125"/>
-      <c r="AM41" s="125"/>
-      <c r="AN41" s="125"/>
-      <c r="AO41" s="125"/>
-      <c r="AP41" s="125"/>
-      <c r="AQ41" s="125"/>
-      <c r="AR41" s="125"/>
-      <c r="AS41" s="125"/>
-      <c r="AT41" s="125"/>
-      <c r="AU41" s="125"/>
-      <c r="AV41" s="125"/>
-      <c r="AW41" s="125"/>
-      <c r="AX41" s="125"/>
-      <c r="AY41" s="125"/>
+      <c r="A41" s="65"/>
+      <c r="B41" s="66"/>
+      <c r="C41" s="67"/>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="68"/>
+      <c r="G41" s="68"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="70"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="71"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="74"/>
+      <c r="O41" s="74"/>
+      <c r="P41" s="74"/>
+      <c r="Q41" s="74"/>
+      <c r="R41" s="74"/>
+      <c r="S41" s="75"/>
+      <c r="T41" s="73"/>
+      <c r="U41" s="74"/>
+      <c r="V41" s="74"/>
+      <c r="W41" s="75"/>
+      <c r="X41" s="76"/>
+      <c r="Y41" s="76"/>
+      <c r="Z41" s="76"/>
+      <c r="AA41" s="76"/>
+      <c r="AB41" s="76"/>
+      <c r="AC41" s="76"/>
+      <c r="AD41" s="76"/>
+      <c r="AE41" s="76"/>
+      <c r="AF41" s="76"/>
+      <c r="AG41" s="76"/>
+      <c r="AH41" s="76"/>
+      <c r="AI41" s="76"/>
+      <c r="AJ41" s="76"/>
+      <c r="AK41" s="76"/>
+      <c r="AL41" s="76"/>
+      <c r="AM41" s="76"/>
+      <c r="AN41" s="76"/>
+      <c r="AO41" s="76"/>
+      <c r="AP41" s="76"/>
+      <c r="AQ41" s="76"/>
+      <c r="AR41" s="76"/>
+      <c r="AS41" s="76"/>
+      <c r="AT41" s="76"/>
+      <c r="AU41" s="76"/>
+      <c r="AV41" s="76"/>
+      <c r="AW41" s="76"/>
+      <c r="AX41" s="76"/>
+      <c r="AY41" s="76"/>
     </row>
     <row r="42" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A42" s="114"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="117"/>
-      <c r="E42" s="117"/>
-      <c r="F42" s="117"/>
-      <c r="G42" s="117"/>
-      <c r="H42" s="118"/>
-      <c r="I42" s="119"/>
-      <c r="J42" s="120"/>
-      <c r="K42" s="120"/>
-      <c r="L42" s="121"/>
-      <c r="M42" s="122"/>
-      <c r="N42" s="123"/>
-      <c r="O42" s="123"/>
-      <c r="P42" s="123"/>
-      <c r="Q42" s="123"/>
-      <c r="R42" s="123"/>
-      <c r="S42" s="124"/>
-      <c r="T42" s="122"/>
-      <c r="U42" s="123"/>
-      <c r="V42" s="123"/>
-      <c r="W42" s="124"/>
-      <c r="X42" s="125"/>
-      <c r="Y42" s="125"/>
-      <c r="Z42" s="125"/>
-      <c r="AA42" s="125"/>
-      <c r="AB42" s="125"/>
-      <c r="AC42" s="125"/>
-      <c r="AD42" s="125"/>
-      <c r="AE42" s="125"/>
-      <c r="AF42" s="125"/>
-      <c r="AG42" s="125"/>
-      <c r="AH42" s="125"/>
-      <c r="AI42" s="125"/>
-      <c r="AJ42" s="125"/>
-      <c r="AK42" s="125"/>
-      <c r="AL42" s="125"/>
-      <c r="AM42" s="125"/>
-      <c r="AN42" s="125"/>
-      <c r="AO42" s="125"/>
-      <c r="AP42" s="125"/>
-      <c r="AQ42" s="125"/>
-      <c r="AR42" s="125"/>
-      <c r="AS42" s="125"/>
-      <c r="AT42" s="125"/>
-      <c r="AU42" s="125"/>
-      <c r="AV42" s="125"/>
-      <c r="AW42" s="125"/>
-      <c r="AX42" s="125"/>
-      <c r="AY42" s="125"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="66"/>
+      <c r="C42" s="67"/>
+      <c r="D42" s="68"/>
+      <c r="E42" s="68"/>
+      <c r="F42" s="68"/>
+      <c r="G42" s="68"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="70"/>
+      <c r="J42" s="71"/>
+      <c r="K42" s="71"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="74"/>
+      <c r="O42" s="74"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="74"/>
+      <c r="R42" s="74"/>
+      <c r="S42" s="75"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="74"/>
+      <c r="V42" s="74"/>
+      <c r="W42" s="75"/>
+      <c r="X42" s="76"/>
+      <c r="Y42" s="76"/>
+      <c r="Z42" s="76"/>
+      <c r="AA42" s="76"/>
+      <c r="AB42" s="76"/>
+      <c r="AC42" s="76"/>
+      <c r="AD42" s="76"/>
+      <c r="AE42" s="76"/>
+      <c r="AF42" s="76"/>
+      <c r="AG42" s="76"/>
+      <c r="AH42" s="76"/>
+      <c r="AI42" s="76"/>
+      <c r="AJ42" s="76"/>
+      <c r="AK42" s="76"/>
+      <c r="AL42" s="76"/>
+      <c r="AM42" s="76"/>
+      <c r="AN42" s="76"/>
+      <c r="AO42" s="76"/>
+      <c r="AP42" s="76"/>
+      <c r="AQ42" s="76"/>
+      <c r="AR42" s="76"/>
+      <c r="AS42" s="76"/>
+      <c r="AT42" s="76"/>
+      <c r="AU42" s="76"/>
+      <c r="AV42" s="76"/>
+      <c r="AW42" s="76"/>
+      <c r="AX42" s="76"/>
+      <c r="AY42" s="76"/>
     </row>
     <row r="43" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A43" s="114"/>
-      <c r="B43" s="115"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="117"/>
-      <c r="E43" s="117"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="117"/>
-      <c r="H43" s="118"/>
-      <c r="I43" s="119"/>
-      <c r="J43" s="120"/>
-      <c r="K43" s="120"/>
-      <c r="L43" s="121"/>
-      <c r="M43" s="122"/>
-      <c r="N43" s="123"/>
-      <c r="O43" s="123"/>
-      <c r="P43" s="123"/>
-      <c r="Q43" s="123"/>
-      <c r="R43" s="123"/>
-      <c r="S43" s="124"/>
-      <c r="T43" s="122"/>
-      <c r="U43" s="123"/>
-      <c r="V43" s="123"/>
-      <c r="W43" s="124"/>
-      <c r="X43" s="125"/>
-      <c r="Y43" s="125"/>
-      <c r="Z43" s="125"/>
-      <c r="AA43" s="125"/>
-      <c r="AB43" s="125"/>
-      <c r="AC43" s="125"/>
-      <c r="AD43" s="125"/>
-      <c r="AE43" s="125"/>
-      <c r="AF43" s="125"/>
-      <c r="AG43" s="125"/>
-      <c r="AH43" s="125"/>
-      <c r="AI43" s="125"/>
-      <c r="AJ43" s="125"/>
-      <c r="AK43" s="125"/>
-      <c r="AL43" s="125"/>
-      <c r="AM43" s="125"/>
-      <c r="AN43" s="125"/>
-      <c r="AO43" s="125"/>
-      <c r="AP43" s="125"/>
-      <c r="AQ43" s="125"/>
-      <c r="AR43" s="125"/>
-      <c r="AS43" s="125"/>
-      <c r="AT43" s="125"/>
-      <c r="AU43" s="125"/>
-      <c r="AV43" s="125"/>
-      <c r="AW43" s="125"/>
-      <c r="AX43" s="125"/>
-      <c r="AY43" s="125"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="66"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="68"/>
+      <c r="E43" s="68"/>
+      <c r="F43" s="68"/>
+      <c r="G43" s="68"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="70"/>
+      <c r="J43" s="71"/>
+      <c r="K43" s="71"/>
+      <c r="L43" s="72"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="74"/>
+      <c r="O43" s="74"/>
+      <c r="P43" s="74"/>
+      <c r="Q43" s="74"/>
+      <c r="R43" s="74"/>
+      <c r="S43" s="75"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="74"/>
+      <c r="V43" s="74"/>
+      <c r="W43" s="75"/>
+      <c r="X43" s="76"/>
+      <c r="Y43" s="76"/>
+      <c r="Z43" s="76"/>
+      <c r="AA43" s="76"/>
+      <c r="AB43" s="76"/>
+      <c r="AC43" s="76"/>
+      <c r="AD43" s="76"/>
+      <c r="AE43" s="76"/>
+      <c r="AF43" s="76"/>
+      <c r="AG43" s="76"/>
+      <c r="AH43" s="76"/>
+      <c r="AI43" s="76"/>
+      <c r="AJ43" s="76"/>
+      <c r="AK43" s="76"/>
+      <c r="AL43" s="76"/>
+      <c r="AM43" s="76"/>
+      <c r="AN43" s="76"/>
+      <c r="AO43" s="76"/>
+      <c r="AP43" s="76"/>
+      <c r="AQ43" s="76"/>
+      <c r="AR43" s="76"/>
+      <c r="AS43" s="76"/>
+      <c r="AT43" s="76"/>
+      <c r="AU43" s="76"/>
+      <c r="AV43" s="76"/>
+      <c r="AW43" s="76"/>
+      <c r="AX43" s="76"/>
+      <c r="AY43" s="76"/>
     </row>
     <row r="44" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A44" s="114"/>
-      <c r="B44" s="115"/>
-      <c r="C44" s="116"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="118"/>
-      <c r="I44" s="119"/>
-      <c r="J44" s="120"/>
-      <c r="K44" s="120"/>
-      <c r="L44" s="121"/>
-      <c r="M44" s="122"/>
-      <c r="N44" s="123"/>
-      <c r="O44" s="123"/>
-      <c r="P44" s="123"/>
-      <c r="Q44" s="123"/>
-      <c r="R44" s="123"/>
-      <c r="S44" s="124"/>
-      <c r="T44" s="122"/>
-      <c r="U44" s="123"/>
-      <c r="V44" s="123"/>
-      <c r="W44" s="124"/>
-      <c r="X44" s="125"/>
-      <c r="Y44" s="125"/>
-      <c r="Z44" s="125"/>
-      <c r="AA44" s="125"/>
-      <c r="AB44" s="125"/>
-      <c r="AC44" s="125"/>
-      <c r="AD44" s="125"/>
-      <c r="AE44" s="125"/>
-      <c r="AF44" s="125"/>
-      <c r="AG44" s="125"/>
-      <c r="AH44" s="125"/>
-      <c r="AI44" s="125"/>
-      <c r="AJ44" s="125"/>
-      <c r="AK44" s="125"/>
-      <c r="AL44" s="125"/>
-      <c r="AM44" s="125"/>
-      <c r="AN44" s="125"/>
-      <c r="AO44" s="125"/>
-      <c r="AP44" s="125"/>
-      <c r="AQ44" s="125"/>
-      <c r="AR44" s="125"/>
-      <c r="AS44" s="125"/>
-      <c r="AT44" s="125"/>
-      <c r="AU44" s="125"/>
-      <c r="AV44" s="125"/>
-      <c r="AW44" s="125"/>
-      <c r="AX44" s="125"/>
-      <c r="AY44" s="125"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="66"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="68"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="68"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="70"/>
+      <c r="J44" s="71"/>
+      <c r="K44" s="71"/>
+      <c r="L44" s="72"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="74"/>
+      <c r="O44" s="74"/>
+      <c r="P44" s="74"/>
+      <c r="Q44" s="74"/>
+      <c r="R44" s="74"/>
+      <c r="S44" s="75"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="74"/>
+      <c r="V44" s="74"/>
+      <c r="W44" s="75"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="76"/>
+      <c r="Z44" s="76"/>
+      <c r="AA44" s="76"/>
+      <c r="AB44" s="76"/>
+      <c r="AC44" s="76"/>
+      <c r="AD44" s="76"/>
+      <c r="AE44" s="76"/>
+      <c r="AF44" s="76"/>
+      <c r="AG44" s="76"/>
+      <c r="AH44" s="76"/>
+      <c r="AI44" s="76"/>
+      <c r="AJ44" s="76"/>
+      <c r="AK44" s="76"/>
+      <c r="AL44" s="76"/>
+      <c r="AM44" s="76"/>
+      <c r="AN44" s="76"/>
+      <c r="AO44" s="76"/>
+      <c r="AP44" s="76"/>
+      <c r="AQ44" s="76"/>
+      <c r="AR44" s="76"/>
+      <c r="AS44" s="76"/>
+      <c r="AT44" s="76"/>
+      <c r="AU44" s="76"/>
+      <c r="AV44" s="76"/>
+      <c r="AW44" s="76"/>
+      <c r="AX44" s="76"/>
+      <c r="AY44" s="76"/>
     </row>
     <row r="45" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A45" s="114"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="116"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="118"/>
-      <c r="I45" s="119"/>
-      <c r="J45" s="120"/>
-      <c r="K45" s="120"/>
-      <c r="L45" s="121"/>
-      <c r="M45" s="122"/>
-      <c r="N45" s="123"/>
-      <c r="O45" s="123"/>
-      <c r="P45" s="123"/>
-      <c r="Q45" s="123"/>
-      <c r="R45" s="123"/>
-      <c r="S45" s="124"/>
-      <c r="T45" s="122"/>
-      <c r="U45" s="123"/>
-      <c r="V45" s="123"/>
-      <c r="W45" s="124"/>
-      <c r="X45" s="125"/>
-      <c r="Y45" s="125"/>
-      <c r="Z45" s="125"/>
-      <c r="AA45" s="125"/>
-      <c r="AB45" s="125"/>
-      <c r="AC45" s="125"/>
-      <c r="AD45" s="125"/>
-      <c r="AE45" s="125"/>
-      <c r="AF45" s="125"/>
-      <c r="AG45" s="125"/>
-      <c r="AH45" s="125"/>
-      <c r="AI45" s="125"/>
-      <c r="AJ45" s="125"/>
-      <c r="AK45" s="125"/>
-      <c r="AL45" s="125"/>
-      <c r="AM45" s="125"/>
-      <c r="AN45" s="125"/>
-      <c r="AO45" s="125"/>
-      <c r="AP45" s="125"/>
-      <c r="AQ45" s="125"/>
-      <c r="AR45" s="125"/>
-      <c r="AS45" s="125"/>
-      <c r="AT45" s="125"/>
-      <c r="AU45" s="125"/>
-      <c r="AV45" s="125"/>
-      <c r="AW45" s="125"/>
-      <c r="AX45" s="125"/>
-      <c r="AY45" s="125"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="67"/>
+      <c r="D45" s="68"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="68"/>
+      <c r="G45" s="68"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="70"/>
+      <c r="J45" s="71"/>
+      <c r="K45" s="71"/>
+      <c r="L45" s="72"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="74"/>
+      <c r="O45" s="74"/>
+      <c r="P45" s="74"/>
+      <c r="Q45" s="74"/>
+      <c r="R45" s="74"/>
+      <c r="S45" s="75"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="74"/>
+      <c r="V45" s="74"/>
+      <c r="W45" s="75"/>
+      <c r="X45" s="76"/>
+      <c r="Y45" s="76"/>
+      <c r="Z45" s="76"/>
+      <c r="AA45" s="76"/>
+      <c r="AB45" s="76"/>
+      <c r="AC45" s="76"/>
+      <c r="AD45" s="76"/>
+      <c r="AE45" s="76"/>
+      <c r="AF45" s="76"/>
+      <c r="AG45" s="76"/>
+      <c r="AH45" s="76"/>
+      <c r="AI45" s="76"/>
+      <c r="AJ45" s="76"/>
+      <c r="AK45" s="76"/>
+      <c r="AL45" s="76"/>
+      <c r="AM45" s="76"/>
+      <c r="AN45" s="76"/>
+      <c r="AO45" s="76"/>
+      <c r="AP45" s="76"/>
+      <c r="AQ45" s="76"/>
+      <c r="AR45" s="76"/>
+      <c r="AS45" s="76"/>
+      <c r="AT45" s="76"/>
+      <c r="AU45" s="76"/>
+      <c r="AV45" s="76"/>
+      <c r="AW45" s="76"/>
+      <c r="AX45" s="76"/>
+      <c r="AY45" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="255">
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="M45:S45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="X45:AY45"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="C44:H44"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="M44:S44"/>
-    <mergeCell ref="T44:W44"/>
-    <mergeCell ref="X44:AY44"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="M43:S43"/>
-    <mergeCell ref="T43:W43"/>
-    <mergeCell ref="X43:AY43"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="M42:S42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="X42:AY42"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="M41:S41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="X41:AY41"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="M40:S40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="X40:AY40"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="M39:S39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="X39:AY39"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="M38:S38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="X38:AY38"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="M37:S37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="X37:AY37"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="M36:S36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="X36:AY36"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="M35:S35"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="X35:AY35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="M34:S34"/>
-    <mergeCell ref="T34:W34"/>
-    <mergeCell ref="X34:AY34"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="M33:S33"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="X33:AY33"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="M32:S32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="X32:AY32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="M31:S31"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="X31:AY31"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="M30:S30"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="X30:AY30"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="M29:S29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="X29:AY29"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="M28:S28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="X28:AY28"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="M27:S27"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="X27:AY27"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="M26:S26"/>
-    <mergeCell ref="T26:W26"/>
-    <mergeCell ref="X26:AY26"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="M25:S25"/>
-    <mergeCell ref="T25:W25"/>
-    <mergeCell ref="X25:AY25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="M24:S24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="X24:AY24"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="M23:S23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="X23:AY23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="M22:S22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="X22:AY22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="M21:S21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="X21:AY21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="M20:S20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="X20:AY20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="M19:S19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="X19:AY19"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="M18:S18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="X18:AY18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="M17:S17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="X17:AY17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="M16:S16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="X16:AY16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="X15:AY15"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="X14:AY14"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="M13:S13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="X13:AY13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="M12:S12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="X12:AY12"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="X11:AY11"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="M10:S10"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X10:AY10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="X9:AY9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="X8:AY8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="M7:S7"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="X7:AY7"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="X6:AY6"/>
     <mergeCell ref="A1:O4"/>
     <mergeCell ref="P1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
@@ -6283,6 +6043,246 @@
     <mergeCell ref="AQ2:AY2"/>
     <mergeCell ref="AQ3:AY3"/>
     <mergeCell ref="AQ4:AY4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="M7:S7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="X7:AY7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="M6:S6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="X6:AY6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="X9:AY9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="M8:S8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="X8:AY8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="X11:AY11"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X10:AY10"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="M13:S13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="X13:AY13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="M12:S12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="X12:AY12"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="X15:AY15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="X14:AY14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:H17"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="M17:S17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="X17:AY17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="M16:S16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="X16:AY16"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:H19"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="M19:S19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="X19:AY19"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:H18"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="M18:S18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="X18:AY18"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="M21:S21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="X21:AY21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:S20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="X20:AY20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:H23"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="M23:S23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="X23:AY23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="M22:S22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="X22:AY22"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:H25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="M25:S25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="X25:AY25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="M24:S24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="X24:AY24"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="M27:S27"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="X27:AY27"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="M26:S26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="X26:AY26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="M29:S29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="X29:AY29"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:H28"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="M28:S28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="X28:AY28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="M31:S31"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="X31:AY31"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="M30:S30"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="X30:AY30"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:H33"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="M33:S33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="X33:AY33"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:H32"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="M32:S32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="X32:AY32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="M35:S35"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="X35:AY35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:H34"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="M34:S34"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="X34:AY34"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:H37"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="M37:S37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="X37:AY37"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:H36"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="M36:S36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="X36:AY36"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="M39:S39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="X39:AY39"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:H38"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="M38:S38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="X38:AY38"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="M41:S41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="X41:AY41"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:H40"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="M40:S40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="X40:AY40"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:H43"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="M43:S43"/>
+    <mergeCell ref="T43:W43"/>
+    <mergeCell ref="X43:AY43"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:H42"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="M42:S42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="X42:AY42"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="M45:S45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="X45:AY45"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="C44:H44"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="M44:S44"/>
+    <mergeCell ref="T44:W44"/>
+    <mergeCell ref="X44:AY44"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <dataValidations count="1">
@@ -6482,242 +6482,242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="65" t="str">
+      <c r="A1" s="91" t="str">
         <f>表紙!A15</f>
         <v>要件定義書</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="74" t="s">
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-      <c r="X1" s="75"/>
-      <c r="Y1" s="75"/>
-      <c r="Z1" s="76"/>
+      <c r="Q1" s="101"/>
+      <c r="R1" s="101"/>
+      <c r="S1" s="101"/>
+      <c r="T1" s="101"/>
+      <c r="U1" s="101"/>
+      <c r="V1" s="101"/>
+      <c r="W1" s="101"/>
+      <c r="X1" s="101"/>
+      <c r="Y1" s="101"/>
+      <c r="Z1" s="102"/>
       <c r="AA1" s="126" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="75"/>
-      <c r="AC1" s="75"/>
+      <c r="AB1" s="101"/>
+      <c r="AC1" s="101"/>
       <c r="AD1" s="127"/>
-      <c r="AE1" s="74" t="s">
+      <c r="AE1" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="AF1" s="75"/>
-      <c r="AG1" s="75"/>
-      <c r="AH1" s="76"/>
+      <c r="AF1" s="101"/>
+      <c r="AG1" s="101"/>
+      <c r="AH1" s="102"/>
       <c r="AI1" s="126" t="s">
         <v>4</v>
       </c>
-      <c r="AJ1" s="75"/>
-      <c r="AK1" s="75"/>
+      <c r="AJ1" s="101"/>
+      <c r="AK1" s="101"/>
       <c r="AL1" s="127"/>
-      <c r="AM1" s="74" t="s">
+      <c r="AM1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="AN1" s="75"/>
-      <c r="AO1" s="75"/>
-      <c r="AP1" s="76"/>
+      <c r="AN1" s="101"/>
+      <c r="AO1" s="101"/>
+      <c r="AP1" s="102"/>
       <c r="AQ1" s="126" t="s">
         <v>6</v>
       </c>
-      <c r="AR1" s="75"/>
-      <c r="AS1" s="75"/>
-      <c r="AT1" s="75"/>
-      <c r="AU1" s="75"/>
-      <c r="AV1" s="75"/>
-      <c r="AW1" s="75"/>
-      <c r="AX1" s="75"/>
-      <c r="AY1" s="76"/>
+      <c r="AR1" s="101"/>
+      <c r="AS1" s="101"/>
+      <c r="AT1" s="101"/>
+      <c r="AU1" s="101"/>
+      <c r="AV1" s="101"/>
+      <c r="AW1" s="101"/>
+      <c r="AX1" s="101"/>
+      <c r="AY1" s="102"/>
     </row>
     <row r="2" spans="1:51" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="70"/>
-      <c r="P2" s="78" t="str">
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="95"/>
+      <c r="N2" s="95"/>
+      <c r="O2" s="96"/>
+      <c r="P2" s="104" t="str">
         <f>表紙!A11</f>
         <v>財務部システムVB.Net化</v>
       </c>
-      <c r="Q2" s="79"/>
-      <c r="R2" s="79"/>
-      <c r="S2" s="79"/>
-      <c r="T2" s="79"/>
-      <c r="U2" s="79"/>
-      <c r="V2" s="79"/>
-      <c r="W2" s="79"/>
-      <c r="X2" s="79"/>
-      <c r="Y2" s="79"/>
-      <c r="Z2" s="80"/>
-      <c r="AA2" s="84">
+      <c r="Q2" s="105"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="105"/>
+      <c r="T2" s="105"/>
+      <c r="U2" s="105"/>
+      <c r="V2" s="105"/>
+      <c r="W2" s="105"/>
+      <c r="X2" s="105"/>
+      <c r="Y2" s="105"/>
+      <c r="Z2" s="106"/>
+      <c r="AA2" s="110">
         <f>表紙!P27</f>
         <v>44172</v>
       </c>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="86"/>
-      <c r="AE2" s="63" t="str">
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="112"/>
+      <c r="AE2" s="51" t="str">
         <f>IF(表紙!BB42&lt;&gt;"",表紙!BB42,"")</f>
         <v>TPI</v>
       </c>
-      <c r="AF2" s="53"/>
-      <c r="AG2" s="53"/>
-      <c r="AH2" s="54"/>
-      <c r="AI2" s="84"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="86"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="54"/>
-      <c r="AQ2" s="99"/>
-      <c r="AR2" s="91"/>
-      <c r="AS2" s="91"/>
-      <c r="AT2" s="91"/>
-      <c r="AU2" s="91"/>
-      <c r="AV2" s="91"/>
-      <c r="AW2" s="91"/>
-      <c r="AX2" s="91"/>
-      <c r="AY2" s="92"/>
+      <c r="AF2" s="41"/>
+      <c r="AG2" s="41"/>
+      <c r="AH2" s="42"/>
+      <c r="AI2" s="110"/>
+      <c r="AJ2" s="111"/>
+      <c r="AK2" s="111"/>
+      <c r="AL2" s="112"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="41"/>
+      <c r="AO2" s="41"/>
+      <c r="AP2" s="42"/>
+      <c r="AQ2" s="125"/>
+      <c r="AR2" s="117"/>
+      <c r="AS2" s="117"/>
+      <c r="AT2" s="117"/>
+      <c r="AU2" s="117"/>
+      <c r="AV2" s="117"/>
+      <c r="AW2" s="117"/>
+      <c r="AX2" s="117"/>
+      <c r="AY2" s="118"/>
     </row>
     <row r="3" spans="1:51" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="79"/>
-      <c r="R3" s="79"/>
-      <c r="S3" s="79"/>
-      <c r="T3" s="79"/>
-      <c r="U3" s="79"/>
-      <c r="V3" s="79"/>
-      <c r="W3" s="79"/>
-      <c r="X3" s="79"/>
-      <c r="Y3" s="79"/>
-      <c r="Z3" s="80"/>
-      <c r="AA3" s="84"/>
-      <c r="AB3" s="85"/>
-      <c r="AC3" s="85"/>
-      <c r="AD3" s="86"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="84"/>
-      <c r="AJ3" s="85"/>
-      <c r="AK3" s="85"/>
-      <c r="AL3" s="86"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="53"/>
-      <c r="AO3" s="53"/>
-      <c r="AP3" s="54"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="95"/>
+      <c r="M3" s="95"/>
+      <c r="N3" s="95"/>
+      <c r="O3" s="96"/>
+      <c r="P3" s="104"/>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="105"/>
+      <c r="S3" s="105"/>
+      <c r="T3" s="105"/>
+      <c r="U3" s="105"/>
+      <c r="V3" s="105"/>
+      <c r="W3" s="105"/>
+      <c r="X3" s="105"/>
+      <c r="Y3" s="105"/>
+      <c r="Z3" s="106"/>
+      <c r="AA3" s="110"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="112"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="110"/>
+      <c r="AJ3" s="111"/>
+      <c r="AK3" s="111"/>
+      <c r="AL3" s="112"/>
+      <c r="AM3" s="51"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="42"/>
       <c r="AQ3" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="AR3" s="75"/>
-      <c r="AS3" s="75"/>
-      <c r="AT3" s="75"/>
-      <c r="AU3" s="75"/>
-      <c r="AV3" s="75"/>
-      <c r="AW3" s="75"/>
-      <c r="AX3" s="75"/>
-      <c r="AY3" s="76"/>
+      <c r="AR3" s="101"/>
+      <c r="AS3" s="101"/>
+      <c r="AT3" s="101"/>
+      <c r="AU3" s="101"/>
+      <c r="AV3" s="101"/>
+      <c r="AW3" s="101"/>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="102"/>
     </row>
     <row r="4" spans="1:51" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="82"/>
-      <c r="R4" s="82"/>
-      <c r="S4" s="82"/>
-      <c r="T4" s="82"/>
-      <c r="U4" s="82"/>
-      <c r="V4" s="82"/>
-      <c r="W4" s="82"/>
-      <c r="X4" s="82"/>
-      <c r="Y4" s="82"/>
-      <c r="Z4" s="83"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="88"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="89"/>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="91"/>
-      <c r="AG4" s="91"/>
-      <c r="AH4" s="92"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="88"/>
-      <c r="AL4" s="89"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="91"/>
-      <c r="AO4" s="91"/>
-      <c r="AP4" s="92"/>
-      <c r="AQ4" s="99"/>
-      <c r="AR4" s="91"/>
-      <c r="AS4" s="91"/>
-      <c r="AT4" s="91"/>
-      <c r="AU4" s="91"/>
-      <c r="AV4" s="91"/>
-      <c r="AW4" s="91"/>
-      <c r="AX4" s="91"/>
-      <c r="AY4" s="92"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="98"/>
+      <c r="K4" s="98"/>
+      <c r="L4" s="98"/>
+      <c r="M4" s="98"/>
+      <c r="N4" s="98"/>
+      <c r="O4" s="99"/>
+      <c r="P4" s="107"/>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="108"/>
+      <c r="U4" s="108"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="108"/>
+      <c r="X4" s="108"/>
+      <c r="Y4" s="108"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="113"/>
+      <c r="AB4" s="114"/>
+      <c r="AC4" s="114"/>
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="116"/>
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="117"/>
+      <c r="AH4" s="118"/>
+      <c r="AI4" s="113"/>
+      <c r="AJ4" s="114"/>
+      <c r="AK4" s="114"/>
+      <c r="AL4" s="115"/>
+      <c r="AM4" s="116"/>
+      <c r="AN4" s="117"/>
+      <c r="AO4" s="117"/>
+      <c r="AP4" s="118"/>
+      <c r="AQ4" s="125"/>
+      <c r="AR4" s="117"/>
+      <c r="AS4" s="117"/>
+      <c r="AT4" s="117"/>
+      <c r="AU4" s="117"/>
+      <c r="AV4" s="117"/>
+      <c r="AW4" s="117"/>
+      <c r="AX4" s="117"/>
+      <c r="AY4" s="118"/>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="B5" s="12"/>
@@ -15251,6 +15251,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:O4"/>
+    <mergeCell ref="P1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="AQ1:AY1"/>
     <mergeCell ref="P2:Z4"/>
     <mergeCell ref="AA2:AD4"/>
@@ -15261,11 +15266,6 @@
     <mergeCell ref="AQ3:AY3"/>
     <mergeCell ref="AQ4:AY4"/>
     <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="A1:O4"/>
-    <mergeCell ref="P1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.78740157480314965" right="0.59055118110236227" top="0.59055118110236227" bottom="0.78740157480314965" header="0.51181102362204722" footer="0.51181102362204722"/>

--- a/Doc/1.SA/要件定義書.xlsx
+++ b/Doc/1.SA/要件定義書.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4200" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="28800" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="88">
   <si>
     <t>改定履歴</t>
     <rPh sb="0" eb="2">
@@ -342,37 +342,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>「社内システム（財務部管轄）」については、他部署との調整を含め改めてマイグレーションを行う事とする。</t>
-    <rPh sb="1" eb="3">
-      <t>シャナイ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ザイムブ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>カンカツ</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>タブショ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>チョウセイ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>アラタ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>別紙「現行業務フロー（随時）.xlsx」「現行業務フロー（月次）.xlsx」参照</t>
     <rPh sb="0" eb="2">
       <t>ベッシ</t>
@@ -564,6 +533,50 @@
   </si>
   <si>
     <t>TPI</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>アプリケーションの配布方法は、「Clickonce」とする。</t>
+    <rPh sb="9" eb="11">
+      <t>ハイフ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「社内システム（財務部管轄）」については、他部署との調整を含め改めて次ステップでマイグレーションを行う事とする。</t>
+    <rPh sb="1" eb="3">
+      <t>シャナイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ザイムブ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンカツ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>タブショ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アラタ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>コト</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -3274,7 +3287,7 @@
       <c r="AZ42" s="41"/>
       <c r="BA42" s="41"/>
       <c r="BB42" s="41" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BC42" s="41"/>
       <c r="BD42" s="41"/>
@@ -3957,7 +3970,7 @@
       </c>
       <c r="B7" s="78"/>
       <c r="C7" s="79" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="80"/>
       <c r="E7" s="80"/>
@@ -6315,144 +6328,144 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="38" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="38" t="s">
+      <c r="C3" s="37" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="38"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C5" s="37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
-    </row>
-    <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="38" t="s">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="38"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C7" s="37" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
-    </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
+    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="38"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C9" s="37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="38"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="38"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="38"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="38"/>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="38"/>
+    </row>
+    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B20" s="38"/>
+    </row>
+    <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="38"/>
+    </row>
+    <row r="23" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="38"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="36" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="38"/>
-    </row>
-    <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="38"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-    </row>
-    <row r="17" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-    </row>
-    <row r="19" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-    </row>
-    <row r="21" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="37" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="38"/>
-    </row>
-    <row r="23" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="37" t="s">
+      <c r="C25" s="37" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="36" t="s">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C27" s="37" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -7704,7 +7717,7 @@
       <c r="B24" s="20"/>
       <c r="C24" s="20"/>
       <c r="D24" s="20" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
@@ -7972,7 +7985,7 @@
       <c r="B29" s="20"/>
       <c r="C29" s="20"/>
       <c r="D29" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
@@ -9023,7 +9036,7 @@
       <c r="A49" s="19"/>
       <c r="B49" s="20"/>
       <c r="C49" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
@@ -9132,7 +9145,7 @@
       <c r="B51" s="20"/>
       <c r="C51" s="20"/>
       <c r="D51" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="20"/>
@@ -11062,7 +11075,7 @@
       <c r="A91" s="19"/>
       <c r="B91" s="20"/>
       <c r="C91" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D91" s="20"/>
       <c r="E91" s="20"/>
@@ -13287,7 +13300,7 @@
       <c r="A133" s="19"/>
       <c r="B133" s="20"/>
       <c r="C133" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D133" s="20"/>
       <c r="E133" s="20"/>
@@ -13396,7 +13409,7 @@
       <c r="B135" s="20"/>
       <c r="C135" s="20"/>
       <c r="D135" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E135" s="20"/>
       <c r="F135" s="20"/>
@@ -13609,7 +13622,7 @@
       <c r="A139" s="19"/>
       <c r="B139" s="20"/>
       <c r="C139" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D139" s="39"/>
       <c r="E139" s="40"/>
@@ -13718,7 +13731,7 @@
       <c r="B141" s="20"/>
       <c r="C141" s="20"/>
       <c r="D141" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E141" s="40"/>
       <c r="F141" s="39"/>
@@ -13931,7 +13944,7 @@
       <c r="A145" s="19"/>
       <c r="B145" s="20"/>
       <c r="C145" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D145" s="39"/>
       <c r="E145" s="40"/>
@@ -14040,7 +14053,7 @@
       <c r="B147" s="20"/>
       <c r="C147" s="20"/>
       <c r="D147" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E147" s="40"/>
       <c r="F147" s="39"/>
@@ -14253,7 +14266,7 @@
       <c r="A151" s="19"/>
       <c r="B151" s="20"/>
       <c r="C151" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D151" s="39"/>
       <c r="E151" s="40"/>
@@ -14362,7 +14375,7 @@
       <c r="B153" s="20"/>
       <c r="C153" s="20"/>
       <c r="D153" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E153" s="39"/>
       <c r="F153" s="39"/>
@@ -14506,7 +14519,7 @@
       <c r="A157" s="19"/>
       <c r="B157" s="20"/>
       <c r="C157" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AA157" s="20"/>
       <c r="AB157" s="20"/>
@@ -14569,7 +14582,7 @@
       <c r="B159" s="20"/>
       <c r="C159" s="20"/>
       <c r="D159" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA159" s="20"/>
       <c r="AB159" s="20"/>
@@ -14691,7 +14704,7 @@
       <c r="A163" s="19"/>
       <c r="B163" s="20"/>
       <c r="C163" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AA163" s="20"/>
       <c r="AB163" s="20"/>
@@ -14776,7 +14789,9 @@
       <c r="A165" s="19"/>
       <c r="B165" s="20"/>
       <c r="C165" s="20"/>
-      <c r="D165" s="20"/>
+      <c r="D165" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="E165" s="20"/>
       <c r="F165" s="20"/>
       <c r="G165" s="20"/>
